--- a/sources/mercure_galant_indexation_musicale/load 1678-1686.xlsx
+++ b/sources/mercure_galant_indexation_musicale/load 1678-1686.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rebecca\Documents\GitHub\SHERLOCK\sources\mercure_galant_indexation_musicale\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9DB964A-2019-4123-9063-980847162EDA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366B21CB-F0A7-4F29-AE92-5E431325E3CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7826,7 +7826,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -7852,7 +7852,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7880,12 +7880,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD64242"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8009,7 +8003,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -8083,21 +8077,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9271,11 +9250,11 @@
   </sheetPr>
   <dimension ref="A1:BR227"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="BE1" zoomScale="60" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="BI11" sqref="BI11"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="N1" zoomScale="60" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="19.95" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5546875" style="13" customWidth="1"/>
     <col min="2" max="2" width="44.88671875" style="5" customWidth="1"/>
@@ -9296,7 +9275,7 @@
     <col min="17" max="17" width="54.6640625" style="23" customWidth="1"/>
     <col min="18" max="18" width="19" style="19" customWidth="1"/>
     <col min="19" max="19" width="27" style="5" customWidth="1"/>
-    <col min="20" max="20" width="30.44140625" style="29" customWidth="1"/>
+    <col min="20" max="20" width="30.44140625" style="23" customWidth="1"/>
     <col min="21" max="21" width="33.21875" style="5" customWidth="1"/>
     <col min="22" max="22" width="71.88671875" style="5" customWidth="1"/>
     <col min="23" max="23" width="22.5546875" style="19" customWidth="1"/>
@@ -9351,7 +9330,7 @@
     <col min="72" max="16384" width="8.33203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" s="7" customFormat="1" ht="112.8" customHeight="1">
+    <row r="1" spans="1:70" s="7" customFormat="1" ht="112.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>2533</v>
       </c>
@@ -9409,7 +9388,7 @@
       <c r="S1" s="6" t="s">
         <v>2546</v>
       </c>
-      <c r="T1" s="25" t="s">
+      <c r="T1" s="20" t="s">
         <v>2548</v>
       </c>
       <c r="U1" s="6" t="s">
@@ -9563,7 +9542,7 @@
         <v>2596</v>
       </c>
     </row>
-    <row r="2" spans="1:70" ht="20.25" customHeight="1">
+    <row r="2" spans="1:70" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>25</v>
       </c>
@@ -9603,7 +9582,7 @@
       <c r="S2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="T2" s="26"/>
+      <c r="T2" s="21"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
       <c r="W2" s="15"/>
@@ -9651,7 +9630,7 @@
         <v>17</v>
       </c>
       <c r="AY2" s="15"/>
-      <c r="AZ2" s="30">
+      <c r="AZ2" s="25">
         <v>16861207</v>
       </c>
       <c r="BA2" s="2"/>
@@ -9677,7 +9656,7 @@
       <c r="BQ2" s="15"/>
       <c r="BR2" s="15"/>
     </row>
-    <row r="3" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>26</v>
       </c>
@@ -9715,7 +9694,7 @@
       <c r="S3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T3" s="27"/>
+      <c r="T3" s="22"/>
       <c r="U3" s="4"/>
       <c r="V3" s="3" t="s">
         <v>27</v>
@@ -9763,7 +9742,7 @@
         <v>17</v>
       </c>
       <c r="AY3" s="17"/>
-      <c r="AZ3" s="31">
+      <c r="AZ3" s="26">
         <v>16861204</v>
       </c>
       <c r="BA3" s="4"/>
@@ -9787,7 +9766,7 @@
       <c r="BQ3" s="17"/>
       <c r="BR3" s="17"/>
     </row>
-    <row r="4" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>27</v>
       </c>
@@ -9829,7 +9808,7 @@
       <c r="S4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T4" s="27"/>
+      <c r="T4" s="22"/>
       <c r="U4" s="4"/>
       <c r="V4" s="4"/>
       <c r="W4" s="17"/>
@@ -9875,7 +9854,7 @@
         <v>45</v>
       </c>
       <c r="AY4" s="17"/>
-      <c r="AZ4" s="31">
+      <c r="AZ4" s="26">
         <v>16861102</v>
       </c>
       <c r="BA4" s="4"/>
@@ -9899,7 +9878,7 @@
       <c r="BQ4" s="17"/>
       <c r="BR4" s="17"/>
     </row>
-    <row r="5" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>28</v>
       </c>
@@ -9937,7 +9916,7 @@
       <c r="S5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T5" s="27"/>
+      <c r="T5" s="22"/>
       <c r="U5" s="4"/>
       <c r="V5" s="4"/>
       <c r="W5" s="17"/>
@@ -9983,7 +9962,7 @@
         <v>56</v>
       </c>
       <c r="AY5" s="17"/>
-      <c r="AZ5" s="31">
+      <c r="AZ5" s="26">
         <v>16861010</v>
       </c>
       <c r="BA5" s="4"/>
@@ -10007,7 +9986,7 @@
       <c r="BQ5" s="17"/>
       <c r="BR5" s="17"/>
     </row>
-    <row r="6" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>29</v>
       </c>
@@ -10045,7 +10024,7 @@
       <c r="S6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T6" s="27"/>
+      <c r="T6" s="22"/>
       <c r="U6" s="4"/>
       <c r="V6" s="3" t="s">
         <v>64</v>
@@ -10093,7 +10072,7 @@
         <v>56</v>
       </c>
       <c r="AY6" s="17"/>
-      <c r="AZ6" s="31">
+      <c r="AZ6" s="26">
         <v>16861002</v>
       </c>
       <c r="BA6" s="3" t="s">
@@ -10119,7 +10098,7 @@
       <c r="BQ6" s="17"/>
       <c r="BR6" s="17"/>
     </row>
-    <row r="7" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>30</v>
       </c>
@@ -10159,7 +10138,7 @@
       <c r="S7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T7" s="27"/>
+      <c r="T7" s="22"/>
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
       <c r="W7" s="17"/>
@@ -10205,7 +10184,7 @@
         <v>81</v>
       </c>
       <c r="AY7" s="17"/>
-      <c r="AZ7" s="31">
+      <c r="AZ7" s="26">
         <v>16860908</v>
       </c>
       <c r="BA7" s="4"/>
@@ -10229,7 +10208,7 @@
       <c r="BQ7" s="17"/>
       <c r="BR7" s="17"/>
     </row>
-    <row r="8" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>31</v>
       </c>
@@ -10267,7 +10246,7 @@
       <c r="Q8" s="22"/>
       <c r="R8" s="17"/>
       <c r="S8" s="4"/>
-      <c r="T8" s="27"/>
+      <c r="T8" s="22"/>
       <c r="U8" s="4"/>
       <c r="V8" s="3" t="s">
         <v>89</v>
@@ -10315,7 +10294,7 @@
         <v>81</v>
       </c>
       <c r="AY8" s="17"/>
-      <c r="AZ8" s="31">
+      <c r="AZ8" s="26">
         <v>16860903</v>
       </c>
       <c r="BA8" s="4"/>
@@ -10339,7 +10318,7 @@
       <c r="BQ8" s="17"/>
       <c r="BR8" s="17"/>
     </row>
-    <row r="9" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>32</v>
       </c>
@@ -10379,7 +10358,7 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T9" s="27"/>
+      <c r="T9" s="22"/>
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
       <c r="W9" s="17"/>
@@ -10425,7 +10404,7 @@
         <v>105</v>
       </c>
       <c r="AY9" s="17"/>
-      <c r="AZ9" s="31">
+      <c r="AZ9" s="26">
         <v>16860807</v>
       </c>
       <c r="BA9" s="4"/>
@@ -10449,7 +10428,7 @@
       <c r="BQ9" s="17"/>
       <c r="BR9" s="17"/>
     </row>
-    <row r="10" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>33</v>
       </c>
@@ -10487,7 +10466,7 @@
       <c r="S10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T10" s="27"/>
+      <c r="T10" s="22"/>
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
       <c r="W10" s="17"/>
@@ -10533,7 +10512,7 @@
         <v>105</v>
       </c>
       <c r="AY10" s="17"/>
-      <c r="AZ10" s="31">
+      <c r="AZ10" s="26">
         <v>16860801</v>
       </c>
       <c r="BA10" s="3" t="s">
@@ -10559,7 +10538,7 @@
       <c r="BQ10" s="17"/>
       <c r="BR10" s="17"/>
     </row>
-    <row r="11" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>34</v>
       </c>
@@ -10597,7 +10576,7 @@
       <c r="S11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T11" s="27"/>
+      <c r="T11" s="22"/>
       <c r="U11" s="4"/>
       <c r="V11" s="4"/>
       <c r="W11" s="17"/>
@@ -10643,7 +10622,7 @@
         <v>126</v>
       </c>
       <c r="AY11" s="17"/>
-      <c r="AZ11" s="31">
+      <c r="AZ11" s="26">
         <v>16860701</v>
       </c>
       <c r="BA11" s="4"/>
@@ -10667,7 +10646,7 @@
       <c r="BQ11" s="17"/>
       <c r="BR11" s="17"/>
     </row>
-    <row r="12" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>35</v>
       </c>
@@ -10705,7 +10684,7 @@
       <c r="S12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T12" s="27"/>
+      <c r="T12" s="22"/>
       <c r="U12" s="4"/>
       <c r="V12" s="4"/>
       <c r="W12" s="17"/>
@@ -10751,7 +10730,7 @@
         <v>136</v>
       </c>
       <c r="AY12" s="17"/>
-      <c r="AZ12" s="31">
+      <c r="AZ12" s="26">
         <v>16860606</v>
       </c>
       <c r="BA12" s="4"/>
@@ -10775,7 +10754,7 @@
       <c r="BQ12" s="17"/>
       <c r="BR12" s="17"/>
     </row>
-    <row r="13" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>36</v>
       </c>
@@ -10815,7 +10794,7 @@
       <c r="S13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T13" s="27"/>
+      <c r="T13" s="22"/>
       <c r="U13" s="4"/>
       <c r="V13" s="4"/>
       <c r="W13" s="17"/>
@@ -10861,7 +10840,7 @@
         <v>136</v>
       </c>
       <c r="AY13" s="17"/>
-      <c r="AZ13" s="31">
+      <c r="AZ13" s="26">
         <v>16860603</v>
       </c>
       <c r="BA13" s="3" t="s">
@@ -10887,7 +10866,7 @@
       <c r="BQ13" s="17"/>
       <c r="BR13" s="17"/>
     </row>
-    <row r="14" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>37</v>
       </c>
@@ -10927,7 +10906,7 @@
       <c r="S14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T14" s="27"/>
+      <c r="T14" s="22"/>
       <c r="U14" s="4"/>
       <c r="V14" s="4"/>
       <c r="W14" s="17"/>
@@ -10973,7 +10952,7 @@
         <v>158</v>
       </c>
       <c r="AY14" s="17"/>
-      <c r="AZ14" s="31">
+      <c r="AZ14" s="26">
         <v>16860509</v>
       </c>
       <c r="BA14" s="4"/>
@@ -10997,7 +10976,7 @@
       <c r="BQ14" s="17"/>
       <c r="BR14" s="17"/>
     </row>
-    <row r="15" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>38</v>
       </c>
@@ -11037,7 +11016,7 @@
       <c r="S15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T15" s="27"/>
+      <c r="T15" s="22"/>
       <c r="U15" s="4"/>
       <c r="V15" s="4"/>
       <c r="W15" s="17"/>
@@ -11083,7 +11062,7 @@
         <v>158</v>
       </c>
       <c r="AY15" s="17"/>
-      <c r="AZ15" s="31">
+      <c r="AZ15" s="26">
         <v>16860504</v>
       </c>
       <c r="BA15" s="3" t="s">
@@ -11109,7 +11088,7 @@
       <c r="BQ15" s="17"/>
       <c r="BR15" s="17"/>
     </row>
-    <row r="16" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>39</v>
       </c>
@@ -11149,7 +11128,7 @@
       <c r="S16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T16" s="27"/>
+      <c r="T16" s="22"/>
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
       <c r="W16" s="17"/>
@@ -11195,7 +11174,7 @@
         <v>178</v>
       </c>
       <c r="AY16" s="17"/>
-      <c r="AZ16" s="31">
+      <c r="AZ16" s="26">
         <v>16860407</v>
       </c>
       <c r="BA16" s="4"/>
@@ -11219,7 +11198,7 @@
       <c r="BQ16" s="17"/>
       <c r="BR16" s="17"/>
     </row>
-    <row r="17" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>40</v>
       </c>
@@ -11259,7 +11238,7 @@
       <c r="S17" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T17" s="27"/>
+      <c r="T17" s="22"/>
       <c r="U17" s="4"/>
       <c r="V17" s="4"/>
       <c r="W17" s="17"/>
@@ -11305,7 +11284,7 @@
         <v>178</v>
       </c>
       <c r="AY17" s="17"/>
-      <c r="AZ17" s="31">
+      <c r="AZ17" s="26">
         <v>16860401</v>
       </c>
       <c r="BA17" s="4"/>
@@ -11329,7 +11308,7 @@
       <c r="BQ17" s="17"/>
       <c r="BR17" s="17"/>
     </row>
-    <row r="18" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>41</v>
       </c>
@@ -11369,7 +11348,7 @@
       <c r="S18" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T18" s="27"/>
+      <c r="T18" s="22"/>
       <c r="U18" s="4"/>
       <c r="V18" s="4"/>
       <c r="W18" s="17"/>
@@ -11415,7 +11394,7 @@
         <v>197</v>
       </c>
       <c r="AY18" s="17"/>
-      <c r="AZ18" s="31">
+      <c r="AZ18" s="26">
         <v>16860304</v>
       </c>
       <c r="BA18" s="3" t="s">
@@ -11441,7 +11420,7 @@
       <c r="BQ18" s="17"/>
       <c r="BR18" s="17"/>
     </row>
-    <row r="19" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>42</v>
       </c>
@@ -11479,7 +11458,7 @@
       <c r="S19" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T19" s="27"/>
+      <c r="T19" s="22"/>
       <c r="U19" s="4"/>
       <c r="V19" s="4"/>
       <c r="W19" s="17"/>
@@ -11525,7 +11504,7 @@
         <v>197</v>
       </c>
       <c r="AY19" s="17"/>
-      <c r="AZ19" s="31">
+      <c r="AZ19" s="26">
         <v>16860301</v>
       </c>
       <c r="BA19" s="4"/>
@@ -11549,7 +11528,7 @@
       <c r="BQ19" s="17"/>
       <c r="BR19" s="17"/>
     </row>
-    <row r="20" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>43</v>
       </c>
@@ -11587,7 +11566,7 @@
       <c r="S20" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T20" s="27"/>
+      <c r="T20" s="22"/>
       <c r="U20" s="4"/>
       <c r="V20" s="4"/>
       <c r="W20" s="17"/>
@@ -11633,7 +11612,7 @@
         <v>217</v>
       </c>
       <c r="AY20" s="17"/>
-      <c r="AZ20" s="31">
+      <c r="AZ20" s="26">
         <v>16860207</v>
       </c>
       <c r="BA20" s="4"/>
@@ -11657,7 +11636,7 @@
       <c r="BQ20" s="17"/>
       <c r="BR20" s="17"/>
     </row>
-    <row r="21" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
         <v>44</v>
       </c>
@@ -11697,7 +11676,7 @@
       <c r="S21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T21" s="27"/>
+      <c r="T21" s="22"/>
       <c r="U21" s="4"/>
       <c r="V21" s="4"/>
       <c r="W21" s="17"/>
@@ -11743,7 +11722,7 @@
         <v>217</v>
       </c>
       <c r="AY21" s="17"/>
-      <c r="AZ21" s="31">
+      <c r="AZ21" s="26">
         <v>16860201</v>
       </c>
       <c r="BA21" s="4"/>
@@ -11767,7 +11746,7 @@
       <c r="BQ21" s="17"/>
       <c r="BR21" s="17"/>
     </row>
-    <row r="22" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
         <v>45</v>
       </c>
@@ -11805,7 +11784,7 @@
       <c r="S22" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T22" s="27"/>
+      <c r="T22" s="22"/>
       <c r="U22" s="4"/>
       <c r="V22" s="4"/>
       <c r="W22" s="17"/>
@@ -11851,7 +11830,7 @@
         <v>237</v>
       </c>
       <c r="AY22" s="17"/>
-      <c r="AZ22" s="31">
+      <c r="AZ22" s="26">
         <v>16860102</v>
       </c>
       <c r="BA22" s="4"/>
@@ -11875,7 +11854,7 @@
       <c r="BQ22" s="17"/>
       <c r="BR22" s="17"/>
     </row>
-    <row r="23" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
         <v>46</v>
       </c>
@@ -11913,7 +11892,7 @@
       <c r="S23" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T23" s="27"/>
+      <c r="T23" s="22"/>
       <c r="U23" s="4"/>
       <c r="V23" s="4"/>
       <c r="W23" s="17"/>
@@ -11959,7 +11938,7 @@
         <v>247</v>
       </c>
       <c r="AY23" s="17"/>
-      <c r="AZ23" s="31">
+      <c r="AZ23" s="26">
         <v>16851207</v>
       </c>
       <c r="BA23" s="4"/>
@@ -11983,7 +11962,7 @@
       <c r="BQ23" s="17"/>
       <c r="BR23" s="17"/>
     </row>
-    <row r="24" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
         <v>47</v>
       </c>
@@ -12021,7 +12000,7 @@
       <c r="S24" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T24" s="27"/>
+      <c r="T24" s="22"/>
       <c r="U24" s="4"/>
       <c r="V24" s="3" t="s">
         <v>254</v>
@@ -12069,7 +12048,7 @@
         <v>247</v>
       </c>
       <c r="AY24" s="17"/>
-      <c r="AZ24" s="31">
+      <c r="AZ24" s="26">
         <v>16851203</v>
       </c>
       <c r="BA24" s="3" t="s">
@@ -12095,7 +12074,7 @@
       <c r="BQ24" s="17"/>
       <c r="BR24" s="17"/>
     </row>
-    <row r="25" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
         <v>48</v>
       </c>
@@ -12133,7 +12112,7 @@
       <c r="S25" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T25" s="27"/>
+      <c r="T25" s="22"/>
       <c r="U25" s="4"/>
       <c r="V25" s="4"/>
       <c r="W25" s="17"/>
@@ -12179,7 +12158,7 @@
         <v>268</v>
       </c>
       <c r="AY25" s="17"/>
-      <c r="AZ25" s="31">
+      <c r="AZ25" s="26">
         <v>16851106</v>
       </c>
       <c r="BA25" s="4"/>
@@ -12203,7 +12182,7 @@
       <c r="BQ25" s="17"/>
       <c r="BR25" s="17"/>
     </row>
-    <row r="26" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
         <v>49</v>
       </c>
@@ -12243,7 +12222,7 @@
       <c r="S26" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T26" s="27"/>
+      <c r="T26" s="22"/>
       <c r="U26" s="4"/>
       <c r="V26" s="4"/>
       <c r="W26" s="17"/>
@@ -12289,7 +12268,7 @@
         <v>268</v>
       </c>
       <c r="AY26" s="17"/>
-      <c r="AZ26" s="31">
+      <c r="AZ26" s="26">
         <v>16851105</v>
       </c>
       <c r="BA26" s="4"/>
@@ -12313,7 +12292,7 @@
       <c r="BQ26" s="17"/>
       <c r="BR26" s="17"/>
     </row>
-    <row r="27" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
         <v>50</v>
       </c>
@@ -12351,7 +12330,7 @@
       <c r="S27" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T27" s="27"/>
+      <c r="T27" s="22"/>
       <c r="U27" s="4"/>
       <c r="V27" s="4"/>
       <c r="W27" s="17"/>
@@ -12397,7 +12376,7 @@
         <v>288</v>
       </c>
       <c r="AY27" s="17"/>
-      <c r="AZ27" s="31">
+      <c r="AZ27" s="26">
         <v>16851008</v>
       </c>
       <c r="BA27" s="3" t="s">
@@ -12423,7 +12402,7 @@
       <c r="BQ27" s="17"/>
       <c r="BR27" s="17"/>
     </row>
-    <row r="28" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
         <v>51</v>
       </c>
@@ -12461,7 +12440,7 @@
       <c r="S28" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T28" s="27"/>
+      <c r="T28" s="22"/>
       <c r="U28" s="4"/>
       <c r="V28" s="4"/>
       <c r="W28" s="17"/>
@@ -12507,7 +12486,7 @@
         <v>288</v>
       </c>
       <c r="AY28" s="17"/>
-      <c r="AZ28" s="31">
+      <c r="AZ28" s="26">
         <v>16851002</v>
       </c>
       <c r="BA28" s="3" t="s">
@@ -12533,7 +12512,7 @@
       <c r="BQ28" s="17"/>
       <c r="BR28" s="17"/>
     </row>
-    <row r="29" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="29" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
         <v>52</v>
       </c>
@@ -12571,7 +12550,7 @@
       <c r="S29" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T29" s="27"/>
+      <c r="T29" s="22"/>
       <c r="U29" s="4"/>
       <c r="V29" s="4"/>
       <c r="W29" s="17"/>
@@ -12617,7 +12596,7 @@
         <v>309</v>
       </c>
       <c r="AY29" s="17"/>
-      <c r="AZ29" s="31">
+      <c r="AZ29" s="26">
         <v>16850901</v>
       </c>
       <c r="BA29" s="4"/>
@@ -12641,7 +12620,7 @@
       <c r="BQ29" s="17"/>
       <c r="BR29" s="17"/>
     </row>
-    <row r="30" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="30" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
         <v>53</v>
       </c>
@@ -12679,7 +12658,7 @@
       <c r="S30" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T30" s="27"/>
+      <c r="T30" s="22"/>
       <c r="U30" s="4"/>
       <c r="V30" s="4"/>
       <c r="W30" s="17"/>
@@ -12725,7 +12704,7 @@
         <v>309</v>
       </c>
       <c r="AY30" s="17"/>
-      <c r="AZ30" s="31">
+      <c r="AZ30" s="26">
         <v>16850801</v>
       </c>
       <c r="BA30" s="3" t="s">
@@ -12751,7 +12730,7 @@
       <c r="BQ30" s="17"/>
       <c r="BR30" s="17"/>
     </row>
-    <row r="31" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="31" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
         <v>54</v>
       </c>
@@ -12791,7 +12770,7 @@
       <c r="S31" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="T31" s="27"/>
+      <c r="T31" s="22"/>
       <c r="U31" s="4"/>
       <c r="V31" s="4"/>
       <c r="W31" s="17"/>
@@ -12839,7 +12818,7 @@
         <v>332</v>
       </c>
       <c r="AY31" s="17"/>
-      <c r="AZ31" s="31">
+      <c r="AZ31" s="26">
         <v>16850702</v>
       </c>
       <c r="BA31" s="4"/>
@@ -12863,7 +12842,7 @@
       <c r="BQ31" s="17"/>
       <c r="BR31" s="17"/>
     </row>
-    <row r="32" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="32" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
         <v>55</v>
       </c>
@@ -12901,7 +12880,7 @@
       <c r="S32" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T32" s="27"/>
+      <c r="T32" s="22"/>
       <c r="U32" s="4"/>
       <c r="V32" s="3" t="s">
         <v>340</v>
@@ -12949,7 +12928,7 @@
         <v>344</v>
       </c>
       <c r="AY32" s="17"/>
-      <c r="AZ32" s="31">
+      <c r="AZ32" s="26">
         <v>16850609</v>
       </c>
       <c r="BA32" s="3" t="s">
@@ -12975,7 +12954,7 @@
       <c r="BQ32" s="17"/>
       <c r="BR32" s="17"/>
     </row>
-    <row r="33" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="33" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10">
         <v>57</v>
       </c>
@@ -13015,7 +12994,7 @@
       <c r="S33" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T33" s="27"/>
+      <c r="T33" s="22"/>
       <c r="U33" s="4"/>
       <c r="V33" s="4"/>
       <c r="W33" s="17"/>
@@ -13061,7 +13040,7 @@
         <v>355</v>
       </c>
       <c r="AY33" s="17"/>
-      <c r="AZ33" s="31">
+      <c r="AZ33" s="26">
         <v>16850507</v>
       </c>
       <c r="BA33" s="3" t="s">
@@ -13087,7 +13066,7 @@
       <c r="BQ33" s="17"/>
       <c r="BR33" s="17"/>
     </row>
-    <row r="34" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="34" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10">
         <v>58</v>
       </c>
@@ -13127,7 +13106,7 @@
       <c r="S34" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T34" s="27"/>
+      <c r="T34" s="22"/>
       <c r="U34" s="4"/>
       <c r="V34" s="4"/>
       <c r="W34" s="17"/>
@@ -13173,7 +13152,7 @@
         <v>355</v>
       </c>
       <c r="AY34" s="17"/>
-      <c r="AZ34" s="31">
+      <c r="AZ34" s="26">
         <v>16850504</v>
       </c>
       <c r="BA34" s="4"/>
@@ -13199,7 +13178,7 @@
       <c r="BQ34" s="17"/>
       <c r="BR34" s="17"/>
     </row>
-    <row r="35" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="35" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10">
         <v>59</v>
       </c>
@@ -13239,7 +13218,7 @@
       <c r="S35" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T35" s="27"/>
+      <c r="T35" s="22"/>
       <c r="U35" s="4"/>
       <c r="V35" s="4"/>
       <c r="W35" s="17"/>
@@ -13285,7 +13264,7 @@
         <v>377</v>
       </c>
       <c r="AY35" s="17"/>
-      <c r="AZ35" s="31">
+      <c r="AZ35" s="26">
         <v>16850408</v>
       </c>
       <c r="BA35" s="4"/>
@@ -13309,7 +13288,7 @@
       <c r="BQ35" s="17"/>
       <c r="BR35" s="17"/>
     </row>
-    <row r="36" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="36" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
         <v>60</v>
       </c>
@@ -13349,7 +13328,7 @@
       <c r="S36" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T36" s="27"/>
+      <c r="T36" s="22"/>
       <c r="U36" s="4"/>
       <c r="V36" s="4"/>
       <c r="W36" s="17"/>
@@ -13395,7 +13374,7 @@
         <v>377</v>
       </c>
       <c r="AY36" s="17"/>
-      <c r="AZ36" s="31">
+      <c r="AZ36" s="26">
         <v>16850403</v>
       </c>
       <c r="BA36" s="4"/>
@@ -13419,7 +13398,7 @@
       <c r="BQ36" s="17"/>
       <c r="BR36" s="17"/>
     </row>
-    <row r="37" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="37" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="10">
         <v>61</v>
       </c>
@@ -13459,7 +13438,7 @@
       <c r="S37" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T37" s="27"/>
+      <c r="T37" s="22"/>
       <c r="U37" s="4"/>
       <c r="V37" s="4"/>
       <c r="W37" s="17"/>
@@ -13505,7 +13484,7 @@
         <v>397</v>
       </c>
       <c r="AY37" s="17"/>
-      <c r="AZ37" s="31">
+      <c r="AZ37" s="26">
         <v>16850306</v>
       </c>
       <c r="BA37" s="4"/>
@@ -13529,7 +13508,7 @@
       <c r="BQ37" s="17"/>
       <c r="BR37" s="17"/>
     </row>
-    <row r="38" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="38" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10">
         <v>62</v>
       </c>
@@ -13567,7 +13546,7 @@
       <c r="S38" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="T38" s="27"/>
+      <c r="T38" s="22"/>
       <c r="U38" s="4"/>
       <c r="V38" s="4"/>
       <c r="W38" s="17"/>
@@ -13613,7 +13592,7 @@
         <v>397</v>
       </c>
       <c r="AY38" s="17"/>
-      <c r="AZ38" s="31">
+      <c r="AZ38" s="26">
         <v>16850303</v>
       </c>
       <c r="BA38" s="4"/>
@@ -13637,7 +13616,7 @@
       <c r="BQ38" s="17"/>
       <c r="BR38" s="17"/>
     </row>
-    <row r="39" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="39" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10">
         <v>63</v>
       </c>
@@ -13677,7 +13656,7 @@
       <c r="S39" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T39" s="27"/>
+      <c r="T39" s="22"/>
       <c r="U39" s="4"/>
       <c r="V39" s="4"/>
       <c r="W39" s="17"/>
@@ -13723,7 +13702,7 @@
         <v>417</v>
       </c>
       <c r="AY39" s="17"/>
-      <c r="AZ39" s="31">
+      <c r="AZ39" s="26">
         <v>16850205</v>
       </c>
       <c r="BA39" s="4"/>
@@ -13747,7 +13726,7 @@
       <c r="BQ39" s="17"/>
       <c r="BR39" s="17"/>
     </row>
-    <row r="40" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="40" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10">
         <v>64</v>
       </c>
@@ -13785,7 +13764,7 @@
       <c r="S40" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T40" s="27"/>
+      <c r="T40" s="22"/>
       <c r="U40" s="4"/>
       <c r="V40" s="4"/>
       <c r="W40" s="17"/>
@@ -13831,7 +13810,7 @@
         <v>417</v>
       </c>
       <c r="AY40" s="17"/>
-      <c r="AZ40" s="31">
+      <c r="AZ40" s="26">
         <v>16850202</v>
       </c>
       <c r="BA40" s="4"/>
@@ -13855,7 +13834,7 @@
       <c r="BQ40" s="17"/>
       <c r="BR40" s="17"/>
     </row>
-    <row r="41" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="41" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10">
         <v>65</v>
       </c>
@@ -13895,7 +13874,7 @@
       <c r="S41" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T41" s="27"/>
+      <c r="T41" s="22"/>
       <c r="U41" s="4"/>
       <c r="V41" s="4"/>
       <c r="W41" s="17"/>
@@ -13941,7 +13920,7 @@
         <v>437</v>
       </c>
       <c r="AY41" s="17"/>
-      <c r="AZ41" s="31">
+      <c r="AZ41" s="26">
         <v>16850105</v>
       </c>
       <c r="BA41" s="4"/>
@@ -13965,7 +13944,7 @@
       <c r="BQ41" s="17"/>
       <c r="BR41" s="17"/>
     </row>
-    <row r="42" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="42" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10">
         <v>66</v>
       </c>
@@ -14005,7 +13984,7 @@
       <c r="S42" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="T42" s="27"/>
+      <c r="T42" s="22"/>
       <c r="U42" s="4"/>
       <c r="V42" s="4"/>
       <c r="W42" s="17"/>
@@ -14051,7 +14030,7 @@
         <v>437</v>
       </c>
       <c r="AY42" s="17"/>
-      <c r="AZ42" s="31">
+      <c r="AZ42" s="26">
         <v>16850102</v>
       </c>
       <c r="BA42" s="4"/>
@@ -14075,7 +14054,7 @@
       <c r="BQ42" s="17"/>
       <c r="BR42" s="17"/>
     </row>
-    <row r="43" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="43" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10">
         <v>67</v>
       </c>
@@ -14115,7 +14094,7 @@
       <c r="S43" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T43" s="27"/>
+      <c r="T43" s="22"/>
       <c r="U43" s="4"/>
       <c r="V43" s="4"/>
       <c r="W43" s="17"/>
@@ -14161,7 +14140,7 @@
         <v>455</v>
       </c>
       <c r="AY43" s="17"/>
-      <c r="AZ43" s="31">
+      <c r="AZ43" s="26">
         <v>16840254</v>
       </c>
       <c r="BA43" s="4"/>
@@ -14183,7 +14162,7 @@
       <c r="BQ43" s="17"/>
       <c r="BR43" s="17"/>
     </row>
-    <row r="44" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="44" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10">
         <v>68</v>
       </c>
@@ -14223,7 +14202,7 @@
       <c r="S44" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T44" s="27"/>
+      <c r="T44" s="22"/>
       <c r="U44" s="4"/>
       <c r="V44" s="4"/>
       <c r="W44" s="17"/>
@@ -14271,7 +14250,7 @@
         <v>466</v>
       </c>
       <c r="AY44" s="17"/>
-      <c r="AZ44" s="31">
+      <c r="AZ44" s="26">
         <v>16841205</v>
       </c>
       <c r="BA44" s="4"/>
@@ -14297,7 +14276,7 @@
       <c r="BQ44" s="17"/>
       <c r="BR44" s="17"/>
     </row>
-    <row r="45" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="45" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10">
         <v>69</v>
       </c>
@@ -14335,7 +14314,7 @@
       <c r="S45" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T45" s="27"/>
+      <c r="T45" s="22"/>
       <c r="U45" s="4"/>
       <c r="V45" s="4"/>
       <c r="W45" s="17"/>
@@ -14381,7 +14360,7 @@
         <v>466</v>
       </c>
       <c r="AY45" s="17"/>
-      <c r="AZ45" s="31">
+      <c r="AZ45" s="26">
         <v>16841201</v>
       </c>
       <c r="BA45" s="4"/>
@@ -14405,7 +14384,7 @@
       <c r="BQ45" s="17"/>
       <c r="BR45" s="17"/>
     </row>
-    <row r="46" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="46" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10">
         <v>70</v>
       </c>
@@ -14443,7 +14422,7 @@
       <c r="S46" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T46" s="27"/>
+      <c r="T46" s="22"/>
       <c r="U46" s="4"/>
       <c r="V46" s="4"/>
       <c r="W46" s="17"/>
@@ -14489,7 +14468,7 @@
         <v>488</v>
       </c>
       <c r="AY46" s="17"/>
-      <c r="AZ46" s="31">
+      <c r="AZ46" s="26">
         <v>16841109</v>
       </c>
       <c r="BA46" s="4"/>
@@ -14513,7 +14492,7 @@
       <c r="BQ46" s="17"/>
       <c r="BR46" s="17"/>
     </row>
-    <row r="47" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="47" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10">
         <v>71</v>
       </c>
@@ -14551,7 +14530,7 @@
       <c r="S47" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T47" s="27"/>
+      <c r="T47" s="22"/>
       <c r="U47" s="4"/>
       <c r="V47" s="4"/>
       <c r="W47" s="17"/>
@@ -14597,7 +14576,7 @@
         <v>488</v>
       </c>
       <c r="AY47" s="17"/>
-      <c r="AZ47" s="31">
+      <c r="AZ47" s="26">
         <v>16841103</v>
       </c>
       <c r="BA47" s="4"/>
@@ -14621,7 +14600,7 @@
       <c r="BQ47" s="17"/>
       <c r="BR47" s="17"/>
     </row>
-    <row r="48" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="48" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="10">
         <v>72</v>
       </c>
@@ -14659,7 +14638,7 @@
       <c r="S48" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T48" s="27"/>
+      <c r="T48" s="22"/>
       <c r="U48" s="4"/>
       <c r="V48" s="4"/>
       <c r="W48" s="17"/>
@@ -14705,7 +14684,7 @@
         <v>507</v>
       </c>
       <c r="AY48" s="17"/>
-      <c r="AZ48" s="31">
+      <c r="AZ48" s="26">
         <v>16841007</v>
       </c>
       <c r="BA48" s="3" t="s">
@@ -14731,7 +14710,7 @@
       <c r="BQ48" s="17"/>
       <c r="BR48" s="17"/>
     </row>
-    <row r="49" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="49" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="10">
         <v>73</v>
       </c>
@@ -14769,7 +14748,7 @@
       <c r="S49" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T49" s="27"/>
+      <c r="T49" s="22"/>
       <c r="U49" s="4"/>
       <c r="V49" s="4"/>
       <c r="W49" s="17"/>
@@ -14815,7 +14794,7 @@
         <v>507</v>
       </c>
       <c r="AY49" s="17"/>
-      <c r="AZ49" s="31">
+      <c r="AZ49" s="26">
         <v>16841003</v>
       </c>
       <c r="BA49" s="4"/>
@@ -14839,7 +14818,7 @@
       <c r="BQ49" s="17"/>
       <c r="BR49" s="17"/>
     </row>
-    <row r="50" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="50" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="10">
         <v>74</v>
       </c>
@@ -14877,7 +14856,7 @@
       <c r="S50" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T50" s="27"/>
+      <c r="T50" s="22"/>
       <c r="U50" s="4"/>
       <c r="V50" s="4"/>
       <c r="W50" s="17"/>
@@ -14923,7 +14902,7 @@
         <v>528</v>
       </c>
       <c r="AY50" s="17"/>
-      <c r="AZ50" s="31">
+      <c r="AZ50" s="26">
         <v>16840904</v>
       </c>
       <c r="BA50" s="4"/>
@@ -14947,7 +14926,7 @@
       <c r="BQ50" s="17"/>
       <c r="BR50" s="17"/>
     </row>
-    <row r="51" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="51" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="10">
         <v>75</v>
       </c>
@@ -14987,7 +14966,7 @@
       <c r="S51" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="T51" s="27"/>
+      <c r="T51" s="22"/>
       <c r="U51" s="4"/>
       <c r="V51" s="4"/>
       <c r="W51" s="17"/>
@@ -15035,7 +15014,7 @@
         <v>528</v>
       </c>
       <c r="AY51" s="17"/>
-      <c r="AZ51" s="31">
+      <c r="AZ51" s="26">
         <v>16840902</v>
       </c>
       <c r="BA51" s="3" t="s">
@@ -15063,7 +15042,7 @@
       <c r="BQ51" s="17"/>
       <c r="BR51" s="17"/>
     </row>
-    <row r="52" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="52" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="10">
         <v>76</v>
       </c>
@@ -15101,7 +15080,7 @@
       <c r="S52" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T52" s="27"/>
+      <c r="T52" s="22"/>
       <c r="U52" s="4"/>
       <c r="V52" s="4"/>
       <c r="W52" s="17"/>
@@ -15147,7 +15126,7 @@
         <v>551</v>
       </c>
       <c r="AY52" s="17"/>
-      <c r="AZ52" s="31">
+      <c r="AZ52" s="26">
         <v>16840805</v>
       </c>
       <c r="BA52" s="4"/>
@@ -15171,7 +15150,7 @@
       <c r="BQ52" s="17"/>
       <c r="BR52" s="17"/>
     </row>
-    <row r="53" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="53" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="10">
         <v>77</v>
       </c>
@@ -15209,7 +15188,7 @@
       <c r="S53" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T53" s="27"/>
+      <c r="T53" s="22"/>
       <c r="U53" s="4"/>
       <c r="V53" s="3" t="s">
         <v>558</v>
@@ -15257,7 +15236,7 @@
         <v>551</v>
       </c>
       <c r="AY53" s="17"/>
-      <c r="AZ53" s="31">
+      <c r="AZ53" s="26">
         <v>16840802</v>
       </c>
       <c r="BA53" s="3" t="s">
@@ -15283,7 +15262,7 @@
       <c r="BQ53" s="17"/>
       <c r="BR53" s="17"/>
     </row>
-    <row r="54" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="54" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="10">
         <v>78</v>
       </c>
@@ -15321,7 +15300,7 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T54" s="27"/>
+      <c r="T54" s="22"/>
       <c r="U54" s="4"/>
       <c r="V54" s="4"/>
       <c r="W54" s="17"/>
@@ -15367,7 +15346,7 @@
         <v>571</v>
       </c>
       <c r="AY54" s="17"/>
-      <c r="AZ54" s="31">
+      <c r="AZ54" s="26">
         <v>16840605</v>
       </c>
       <c r="BA54" s="4"/>
@@ -15393,7 +15372,7 @@
       <c r="BQ54" s="17"/>
       <c r="BR54" s="17"/>
     </row>
-    <row r="55" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="55" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="10">
         <v>79</v>
       </c>
@@ -15433,7 +15412,7 @@
       <c r="S55" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T55" s="27"/>
+      <c r="T55" s="22"/>
       <c r="U55" s="4"/>
       <c r="V55" s="4"/>
       <c r="W55" s="17"/>
@@ -15479,7 +15458,7 @@
         <v>571</v>
       </c>
       <c r="AY55" s="17"/>
-      <c r="AZ55" s="31">
+      <c r="AZ55" s="26">
         <v>16840604</v>
       </c>
       <c r="BA55" s="3" t="s">
@@ -15505,7 +15484,7 @@
       <c r="BQ55" s="17"/>
       <c r="BR55" s="17"/>
     </row>
-    <row r="56" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="56" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="10">
         <v>80</v>
       </c>
@@ -15545,7 +15524,7 @@
       <c r="S56" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T56" s="27"/>
+      <c r="T56" s="22"/>
       <c r="U56" s="4"/>
       <c r="V56" s="4"/>
       <c r="W56" s="17"/>
@@ -15593,7 +15572,7 @@
         <v>593</v>
       </c>
       <c r="AY56" s="17"/>
-      <c r="AZ56" s="31">
+      <c r="AZ56" s="26">
         <v>16840504</v>
       </c>
       <c r="BA56" s="3" t="s">
@@ -15619,7 +15598,7 @@
       <c r="BQ56" s="17"/>
       <c r="BR56" s="17"/>
     </row>
-    <row r="57" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="57" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="10">
         <v>81</v>
       </c>
@@ -15659,7 +15638,7 @@
       <c r="S57" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T57" s="27"/>
+      <c r="T57" s="22"/>
       <c r="U57" s="4"/>
       <c r="V57" s="4"/>
       <c r="W57" s="17"/>
@@ -15705,7 +15684,7 @@
         <v>605</v>
       </c>
       <c r="AY57" s="17"/>
-      <c r="AZ57" s="31">
+      <c r="AZ57" s="26">
         <v>16840406</v>
       </c>
       <c r="BA57" s="4"/>
@@ -15729,7 +15708,7 @@
       <c r="BQ57" s="17"/>
       <c r="BR57" s="17"/>
     </row>
-    <row r="58" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="58" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="10">
         <v>82</v>
       </c>
@@ -15775,7 +15754,7 @@
       <c r="S58" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T58" s="27"/>
+      <c r="T58" s="22"/>
       <c r="U58" s="4"/>
       <c r="V58" s="4"/>
       <c r="W58" s="17"/>
@@ -15851,7 +15830,7 @@
       <c r="BQ58" s="17"/>
       <c r="BR58" s="17"/>
     </row>
-    <row r="59" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="59" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="10">
         <v>83</v>
       </c>
@@ -15893,7 +15872,7 @@
       <c r="S59" s="3" t="s">
         <v>633</v>
       </c>
-      <c r="T59" s="27"/>
+      <c r="T59" s="22"/>
       <c r="U59" s="4"/>
       <c r="V59" s="4"/>
       <c r="W59" s="17"/>
@@ -15939,7 +15918,7 @@
         <v>637</v>
       </c>
       <c r="AY59" s="17"/>
-      <c r="AZ59" s="31">
+      <c r="AZ59" s="26">
         <v>16840306</v>
       </c>
       <c r="BA59" s="4"/>
@@ -15963,7 +15942,7 @@
       <c r="BQ59" s="17"/>
       <c r="BR59" s="17"/>
     </row>
-    <row r="60" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="60" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="10">
         <v>84</v>
       </c>
@@ -16003,7 +15982,7 @@
       <c r="S60" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T60" s="27"/>
+      <c r="T60" s="22"/>
       <c r="U60" s="4"/>
       <c r="V60" s="4"/>
       <c r="W60" s="17"/>
@@ -16049,7 +16028,7 @@
         <v>637</v>
       </c>
       <c r="AY60" s="17"/>
-      <c r="AZ60" s="31">
+      <c r="AZ60" s="26">
         <v>16840303</v>
       </c>
       <c r="BA60" s="4"/>
@@ -16073,7 +16052,7 @@
       <c r="BQ60" s="17"/>
       <c r="BR60" s="17"/>
     </row>
-    <row r="61" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="61" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="10">
         <v>85</v>
       </c>
@@ -16107,7 +16086,7 @@
       <c r="Q61" s="22"/>
       <c r="R61" s="17"/>
       <c r="S61" s="4"/>
-      <c r="T61" s="27"/>
+      <c r="T61" s="22"/>
       <c r="U61" s="4"/>
       <c r="V61" s="4"/>
       <c r="W61" s="17"/>
@@ -16155,7 +16134,7 @@
         <v>455</v>
       </c>
       <c r="AY61" s="17"/>
-      <c r="AZ61" s="31">
+      <c r="AZ61" s="26">
         <v>168402053</v>
       </c>
       <c r="BA61" s="4"/>
@@ -16181,7 +16160,7 @@
       <c r="BQ61" s="17"/>
       <c r="BR61" s="17"/>
     </row>
-    <row r="62" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="62" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="10">
         <v>86</v>
       </c>
@@ -16215,7 +16194,7 @@
       <c r="Q62" s="22"/>
       <c r="R62" s="17"/>
       <c r="S62" s="4"/>
-      <c r="T62" s="27"/>
+      <c r="T62" s="22"/>
       <c r="U62" s="4"/>
       <c r="V62" s="4"/>
       <c r="W62" s="17"/>
@@ -16263,7 +16242,7 @@
         <v>455</v>
       </c>
       <c r="AY62" s="17"/>
-      <c r="AZ62" s="31">
+      <c r="AZ62" s="26">
         <v>168402052</v>
       </c>
       <c r="BA62" s="4"/>
@@ -16289,7 +16268,7 @@
       <c r="BQ62" s="17"/>
       <c r="BR62" s="17"/>
     </row>
-    <row r="63" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="63" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="10">
         <v>87</v>
       </c>
@@ -16331,7 +16310,7 @@
       <c r="S63" s="3" t="s">
         <v>676</v>
       </c>
-      <c r="T63" s="27"/>
+      <c r="T63" s="22"/>
       <c r="U63" s="4"/>
       <c r="V63" s="4"/>
       <c r="W63" s="17"/>
@@ -16377,7 +16356,7 @@
         <v>681</v>
       </c>
       <c r="AY63" s="17"/>
-      <c r="AZ63" s="31">
+      <c r="AZ63" s="26">
         <v>16840108</v>
       </c>
       <c r="BA63" s="4"/>
@@ -16403,7 +16382,7 @@
       <c r="BQ63" s="17"/>
       <c r="BR63" s="17"/>
     </row>
-    <row r="64" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="64" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="10">
         <v>88</v>
       </c>
@@ -16443,7 +16422,7 @@
       <c r="S64" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T64" s="27"/>
+      <c r="T64" s="22"/>
       <c r="U64" s="4"/>
       <c r="V64" s="4"/>
       <c r="W64" s="17"/>
@@ -16489,7 +16468,7 @@
         <v>681</v>
       </c>
       <c r="AY64" s="17"/>
-      <c r="AZ64" s="31">
+      <c r="AZ64" s="26">
         <v>16840101</v>
       </c>
       <c r="BA64" s="4"/>
@@ -16515,7 +16494,7 @@
       <c r="BQ64" s="17"/>
       <c r="BR64" s="17"/>
     </row>
-    <row r="65" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="65" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="10">
         <v>89</v>
       </c>
@@ -16553,7 +16532,7 @@
       <c r="S65" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T65" s="27"/>
+      <c r="T65" s="22"/>
       <c r="U65" s="4"/>
       <c r="V65" s="4"/>
       <c r="W65" s="17"/>
@@ -16599,7 +16578,7 @@
         <v>702</v>
       </c>
       <c r="AY65" s="17"/>
-      <c r="AZ65" s="31">
+      <c r="AZ65" s="26">
         <v>16831202</v>
       </c>
       <c r="BA65" s="4"/>
@@ -16623,7 +16602,7 @@
       <c r="BQ65" s="17"/>
       <c r="BR65" s="17"/>
     </row>
-    <row r="66" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="66" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="10">
         <v>90</v>
       </c>
@@ -16661,7 +16640,7 @@
       <c r="S66" s="3" t="s">
         <v>709</v>
       </c>
-      <c r="T66" s="27"/>
+      <c r="T66" s="22"/>
       <c r="U66" s="4"/>
       <c r="V66" s="4"/>
       <c r="W66" s="17"/>
@@ -16707,7 +16686,7 @@
         <v>713</v>
       </c>
       <c r="AY66" s="17"/>
-      <c r="AZ66" s="31">
+      <c r="AZ66" s="26">
         <v>16831102</v>
       </c>
       <c r="BA66" s="4"/>
@@ -16731,7 +16710,7 @@
       <c r="BQ66" s="17"/>
       <c r="BR66" s="17"/>
     </row>
-    <row r="67" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="67" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="10">
         <v>91</v>
       </c>
@@ -16767,7 +16746,7 @@
       <c r="Q67" s="22"/>
       <c r="R67" s="17"/>
       <c r="S67" s="4"/>
-      <c r="T67" s="27"/>
+      <c r="T67" s="22"/>
       <c r="U67" s="4"/>
       <c r="V67" s="4"/>
       <c r="W67" s="17"/>
@@ -16813,7 +16792,7 @@
         <v>726</v>
       </c>
       <c r="AY67" s="17"/>
-      <c r="AZ67" s="31">
+      <c r="AZ67" s="26">
         <v>16831004</v>
       </c>
       <c r="BA67" s="4"/>
@@ -16839,7 +16818,7 @@
       <c r="BQ67" s="17"/>
       <c r="BR67" s="17"/>
     </row>
-    <row r="68" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="68" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="10">
         <v>92</v>
       </c>
@@ -16877,7 +16856,7 @@
       <c r="S68" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T68" s="27"/>
+      <c r="T68" s="22"/>
       <c r="U68" s="4"/>
       <c r="V68" s="4"/>
       <c r="W68" s="17"/>
@@ -16923,7 +16902,7 @@
         <v>737</v>
       </c>
       <c r="AY68" s="17"/>
-      <c r="AZ68" s="31">
+      <c r="AZ68" s="26">
         <v>16830903</v>
       </c>
       <c r="BA68" s="3" t="s">
@@ -16949,7 +16928,7 @@
       <c r="BQ68" s="17"/>
       <c r="BR68" s="17"/>
     </row>
-    <row r="69" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="69" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="10">
         <v>93</v>
       </c>
@@ -16989,7 +16968,7 @@
       <c r="S69" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T69" s="27"/>
+      <c r="T69" s="22"/>
       <c r="U69" s="4"/>
       <c r="V69" s="4"/>
       <c r="W69" s="17"/>
@@ -17035,7 +17014,7 @@
         <v>748</v>
       </c>
       <c r="AY69" s="17"/>
-      <c r="AZ69" s="31">
+      <c r="AZ69" s="26">
         <v>16830702</v>
       </c>
       <c r="BA69" s="3" t="s">
@@ -17061,7 +17040,7 @@
       <c r="BQ69" s="17"/>
       <c r="BR69" s="17"/>
     </row>
-    <row r="70" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="70" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="10">
         <v>94</v>
       </c>
@@ -17103,7 +17082,7 @@
       <c r="S70" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="T70" s="27"/>
+      <c r="T70" s="22"/>
       <c r="U70" s="4"/>
       <c r="V70" s="4"/>
       <c r="W70" s="17"/>
@@ -17147,7 +17126,7 @@
         <v>760</v>
       </c>
       <c r="AY70" s="17"/>
-      <c r="AZ70" s="31">
+      <c r="AZ70" s="26">
         <v>16830607</v>
       </c>
       <c r="BA70" s="4"/>
@@ -17171,7 +17150,7 @@
       <c r="BQ70" s="17"/>
       <c r="BR70" s="17"/>
     </row>
-    <row r="71" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="71" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="10">
         <v>95</v>
       </c>
@@ -17211,7 +17190,7 @@
       <c r="S71" s="3" t="s">
         <v>769</v>
       </c>
-      <c r="T71" s="27"/>
+      <c r="T71" s="22"/>
       <c r="U71" s="4"/>
       <c r="V71" s="4"/>
       <c r="W71" s="17"/>
@@ -17257,7 +17236,7 @@
         <v>760</v>
       </c>
       <c r="AY71" s="17"/>
-      <c r="AZ71" s="31">
+      <c r="AZ71" s="26">
         <v>16830601</v>
       </c>
       <c r="BA71" s="3" t="s">
@@ -17285,7 +17264,7 @@
       <c r="BQ71" s="17"/>
       <c r="BR71" s="17"/>
     </row>
-    <row r="72" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="72" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="10">
         <v>96</v>
       </c>
@@ -17327,7 +17306,7 @@
       <c r="S72" s="3" t="s">
         <v>785</v>
       </c>
-      <c r="T72" s="27"/>
+      <c r="T72" s="22"/>
       <c r="U72" s="4"/>
       <c r="V72" s="4"/>
       <c r="W72" s="17"/>
@@ -17375,7 +17354,7 @@
         <v>789</v>
       </c>
       <c r="AY72" s="17"/>
-      <c r="AZ72" s="31">
+      <c r="AZ72" s="26">
         <v>16830502</v>
       </c>
       <c r="BA72" s="4"/>
@@ -17403,7 +17382,7 @@
       <c r="BQ72" s="17"/>
       <c r="BR72" s="17"/>
     </row>
-    <row r="73" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="73" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="10">
         <v>97</v>
       </c>
@@ -17445,7 +17424,7 @@
       <c r="S73" s="3" t="s">
         <v>785</v>
       </c>
-      <c r="T73" s="27"/>
+      <c r="T73" s="22"/>
       <c r="U73" s="4"/>
       <c r="V73" s="4"/>
       <c r="W73" s="17"/>
@@ -17493,7 +17472,7 @@
         <v>789</v>
       </c>
       <c r="AY73" s="17"/>
-      <c r="AZ73" s="31">
+      <c r="AZ73" s="26">
         <v>168305021</v>
       </c>
       <c r="BA73" s="4"/>
@@ -17521,7 +17500,7 @@
       <c r="BQ73" s="17"/>
       <c r="BR73" s="17"/>
     </row>
-    <row r="74" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="74" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="10">
         <v>98</v>
       </c>
@@ -17563,7 +17542,7 @@
       <c r="S74" s="3" t="s">
         <v>811</v>
       </c>
-      <c r="T74" s="27"/>
+      <c r="T74" s="22"/>
       <c r="U74" s="4"/>
       <c r="V74" s="4"/>
       <c r="W74" s="17"/>
@@ -17613,7 +17592,7 @@
         <v>818</v>
       </c>
       <c r="AY74" s="17"/>
-      <c r="AZ74" s="31">
+      <c r="AZ74" s="26">
         <v>168304013</v>
       </c>
       <c r="BA74" s="4"/>
@@ -17641,7 +17620,7 @@
       <c r="BQ74" s="17"/>
       <c r="BR74" s="17"/>
     </row>
-    <row r="75" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="75" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="10">
         <v>99</v>
       </c>
@@ -17683,7 +17662,7 @@
       <c r="S75" s="3" t="s">
         <v>811</v>
       </c>
-      <c r="T75" s="27"/>
+      <c r="T75" s="22"/>
       <c r="U75" s="4"/>
       <c r="V75" s="4"/>
       <c r="W75" s="17"/>
@@ -17733,7 +17712,7 @@
         <v>818</v>
       </c>
       <c r="AY75" s="17"/>
-      <c r="AZ75" s="31">
+      <c r="AZ75" s="26">
         <v>168304012</v>
       </c>
       <c r="BA75" s="4"/>
@@ -17761,7 +17740,7 @@
       <c r="BQ75" s="17"/>
       <c r="BR75" s="17"/>
     </row>
-    <row r="76" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="76" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="10">
         <v>100</v>
       </c>
@@ -17801,7 +17780,7 @@
       <c r="S76" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T76" s="27"/>
+      <c r="T76" s="22"/>
       <c r="U76" s="4"/>
       <c r="V76" s="4"/>
       <c r="W76" s="17"/>
@@ -17847,7 +17826,7 @@
         <v>843</v>
       </c>
       <c r="AY76" s="17"/>
-      <c r="AZ76" s="31">
+      <c r="AZ76" s="26">
         <v>16830302</v>
       </c>
       <c r="BA76" s="4"/>
@@ -17873,7 +17852,7 @@
       <c r="BQ76" s="17"/>
       <c r="BR76" s="17"/>
     </row>
-    <row r="77" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="77" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="10">
         <v>101</v>
       </c>
@@ -17911,7 +17890,7 @@
       <c r="S77" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T77" s="27"/>
+      <c r="T77" s="22"/>
       <c r="U77" s="4"/>
       <c r="V77" s="4"/>
       <c r="W77" s="17"/>
@@ -17957,7 +17936,7 @@
         <v>853</v>
       </c>
       <c r="AY77" s="17"/>
-      <c r="AZ77" s="31">
+      <c r="AZ77" s="26">
         <v>16830204</v>
       </c>
       <c r="BA77" s="4"/>
@@ -17981,7 +17960,7 @@
       <c r="BQ77" s="17"/>
       <c r="BR77" s="17"/>
     </row>
-    <row r="78" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="78" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="10">
         <v>102</v>
       </c>
@@ -18017,7 +17996,7 @@
       <c r="Q78" s="22"/>
       <c r="R78" s="17"/>
       <c r="S78" s="4"/>
-      <c r="T78" s="27"/>
+      <c r="T78" s="22"/>
       <c r="U78" s="4"/>
       <c r="V78" s="4"/>
       <c r="W78" s="17"/>
@@ -18063,7 +18042,7 @@
         <v>865</v>
       </c>
       <c r="AY78" s="17"/>
-      <c r="AZ78" s="31">
+      <c r="AZ78" s="26">
         <v>16830109</v>
       </c>
       <c r="BA78" s="4"/>
@@ -18087,7 +18066,7 @@
       <c r="BQ78" s="17"/>
       <c r="BR78" s="17"/>
     </row>
-    <row r="79" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="79" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="10">
         <v>103</v>
       </c>
@@ -18123,7 +18102,7 @@
       <c r="Q79" s="22"/>
       <c r="R79" s="17"/>
       <c r="S79" s="4"/>
-      <c r="T79" s="27"/>
+      <c r="T79" s="22"/>
       <c r="U79" s="4"/>
       <c r="V79" s="4"/>
       <c r="W79" s="17"/>
@@ -18173,7 +18152,7 @@
         <v>865</v>
       </c>
       <c r="AY79" s="17"/>
-      <c r="AZ79" s="31">
+      <c r="AZ79" s="26">
         <v>16830105</v>
       </c>
       <c r="BA79" s="4"/>
@@ -18197,7 +18176,7 @@
       <c r="BQ79" s="17"/>
       <c r="BR79" s="17"/>
     </row>
-    <row r="80" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="80" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="10">
         <v>104</v>
       </c>
@@ -18233,7 +18212,7 @@
       <c r="Q80" s="22"/>
       <c r="R80" s="17"/>
       <c r="S80" s="4"/>
-      <c r="T80" s="27"/>
+      <c r="T80" s="22"/>
       <c r="U80" s="4"/>
       <c r="V80" s="4"/>
       <c r="W80" s="17"/>
@@ -18283,7 +18262,7 @@
         <v>891</v>
       </c>
       <c r="AY80" s="17"/>
-      <c r="AZ80" s="31">
+      <c r="AZ80" s="26">
         <v>16821210</v>
       </c>
       <c r="BA80" s="4"/>
@@ -18307,7 +18286,7 @@
       <c r="BQ80" s="17"/>
       <c r="BR80" s="17"/>
     </row>
-    <row r="81" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="81" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="10">
         <v>105</v>
       </c>
@@ -18345,7 +18324,7 @@
       <c r="S81" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T81" s="27"/>
+      <c r="T81" s="22"/>
       <c r="U81" s="4"/>
       <c r="V81" s="4"/>
       <c r="W81" s="17"/>
@@ -18391,7 +18370,7 @@
         <v>901</v>
       </c>
       <c r="AY81" s="17"/>
-      <c r="AZ81" s="31">
+      <c r="AZ81" s="26">
         <v>16821124</v>
       </c>
       <c r="BA81" s="4"/>
@@ -18415,7 +18394,7 @@
       <c r="BQ81" s="17"/>
       <c r="BR81" s="17"/>
     </row>
-    <row r="82" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="82" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="10">
         <v>106</v>
       </c>
@@ -18457,7 +18436,7 @@
       <c r="S82" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T82" s="27"/>
+      <c r="T82" s="22"/>
       <c r="U82" s="4"/>
       <c r="V82" s="4"/>
       <c r="W82" s="17"/>
@@ -18505,7 +18484,7 @@
         <v>915</v>
       </c>
       <c r="AY82" s="17"/>
-      <c r="AZ82" s="31">
+      <c r="AZ82" s="26">
         <v>16821026</v>
       </c>
       <c r="BA82" s="4"/>
@@ -18529,7 +18508,7 @@
       <c r="BQ82" s="17"/>
       <c r="BR82" s="17"/>
     </row>
-    <row r="83" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="83" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="10">
         <v>107</v>
       </c>
@@ -18569,7 +18548,7 @@
       <c r="S83" s="3" t="s">
         <v>923</v>
       </c>
-      <c r="T83" s="27"/>
+      <c r="T83" s="22"/>
       <c r="U83" s="4"/>
       <c r="V83" s="3" t="s">
         <v>924</v>
@@ -18617,7 +18596,7 @@
         <v>901</v>
       </c>
       <c r="AY83" s="17"/>
-      <c r="AZ83" s="31">
+      <c r="AZ83" s="26">
         <v>16821114</v>
       </c>
       <c r="BA83" s="4"/>
@@ -18643,7 +18622,7 @@
       <c r="BQ83" s="17"/>
       <c r="BR83" s="17"/>
     </row>
-    <row r="84" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="84" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="10">
         <v>108</v>
       </c>
@@ -18681,7 +18660,7 @@
       <c r="S84" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T84" s="27"/>
+      <c r="T84" s="22"/>
       <c r="U84" s="4"/>
       <c r="V84" s="4"/>
       <c r="W84" s="17"/>
@@ -18727,7 +18706,7 @@
         <v>915</v>
       </c>
       <c r="AY84" s="17"/>
-      <c r="AZ84" s="31">
+      <c r="AZ84" s="26">
         <v>16821020</v>
       </c>
       <c r="BA84" s="4"/>
@@ -18751,7 +18730,7 @@
       <c r="BQ84" s="17"/>
       <c r="BR84" s="17"/>
     </row>
-    <row r="85" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="85" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="10">
         <v>109</v>
       </c>
@@ -18789,7 +18768,7 @@
       <c r="S85" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T85" s="27"/>
+      <c r="T85" s="22"/>
       <c r="U85" s="4"/>
       <c r="V85" s="4"/>
       <c r="W85" s="17"/>
@@ -18835,7 +18814,7 @@
         <v>947</v>
       </c>
       <c r="AY85" s="17"/>
-      <c r="AZ85" s="31">
+      <c r="AZ85" s="26">
         <v>16820942</v>
       </c>
       <c r="BA85" s="4"/>
@@ -18859,7 +18838,7 @@
       <c r="BQ85" s="17"/>
       <c r="BR85" s="17"/>
     </row>
-    <row r="86" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="86" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="10">
         <v>110</v>
       </c>
@@ -18899,7 +18878,7 @@
       <c r="S86" s="3" t="s">
         <v>923</v>
       </c>
-      <c r="T86" s="27"/>
+      <c r="T86" s="22"/>
       <c r="U86" s="4"/>
       <c r="V86" s="4"/>
       <c r="W86" s="17"/>
@@ -18947,7 +18926,7 @@
         <v>947</v>
       </c>
       <c r="AY86" s="17"/>
-      <c r="AZ86" s="31">
+      <c r="AZ86" s="26">
         <v>16820924</v>
       </c>
       <c r="BA86" s="4"/>
@@ -18971,7 +18950,7 @@
       <c r="BQ86" s="17"/>
       <c r="BR86" s="17"/>
     </row>
-    <row r="87" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="87" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="10">
         <v>111</v>
       </c>
@@ -19009,7 +18988,7 @@
       <c r="S87" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T87" s="27"/>
+      <c r="T87" s="22"/>
       <c r="U87" s="4"/>
       <c r="V87" s="4"/>
       <c r="W87" s="17"/>
@@ -19055,7 +19034,7 @@
         <v>947</v>
       </c>
       <c r="AY87" s="17"/>
-      <c r="AZ87" s="31">
+      <c r="AZ87" s="26">
         <v>16820916</v>
       </c>
       <c r="BA87" s="4"/>
@@ -19081,7 +19060,7 @@
       <c r="BQ87" s="17"/>
       <c r="BR87" s="17"/>
     </row>
-    <row r="88" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="88" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="10">
         <v>112</v>
       </c>
@@ -19119,7 +19098,7 @@
       <c r="S88" s="3" t="s">
         <v>709</v>
       </c>
-      <c r="T88" s="27"/>
+      <c r="T88" s="22"/>
       <c r="U88" s="4"/>
       <c r="V88" s="4"/>
       <c r="W88" s="17"/>
@@ -19165,7 +19144,7 @@
         <v>978</v>
       </c>
       <c r="AY88" s="17"/>
-      <c r="AZ88" s="31">
+      <c r="AZ88" s="26">
         <v>16820703</v>
       </c>
       <c r="BA88" s="3" t="s">
@@ -19191,7 +19170,7 @@
       <c r="BQ88" s="17"/>
       <c r="BR88" s="17"/>
     </row>
-    <row r="89" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="89" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="10">
         <v>113</v>
       </c>
@@ -19229,7 +19208,7 @@
       <c r="S89" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T89" s="27"/>
+      <c r="T89" s="22"/>
       <c r="U89" s="4"/>
       <c r="V89" s="3" t="s">
         <v>986</v>
@@ -19277,7 +19256,7 @@
         <v>978</v>
       </c>
       <c r="AY89" s="17"/>
-      <c r="AZ89" s="31">
+      <c r="AZ89" s="26">
         <v>16820701</v>
       </c>
       <c r="BA89" s="3" t="s">
@@ -19303,7 +19282,7 @@
       <c r="BQ89" s="17"/>
       <c r="BR89" s="17"/>
     </row>
-    <row r="90" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="90" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="10">
         <v>114</v>
       </c>
@@ -19343,7 +19322,7 @@
       <c r="S90" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T90" s="27"/>
+      <c r="T90" s="22"/>
       <c r="U90" s="4"/>
       <c r="V90" s="4"/>
       <c r="W90" s="17"/>
@@ -19389,7 +19368,7 @@
         <v>1000</v>
       </c>
       <c r="AY90" s="17"/>
-      <c r="AZ90" s="31">
+      <c r="AZ90" s="26">
         <v>16820606</v>
       </c>
       <c r="BA90" s="4"/>
@@ -19413,7 +19392,7 @@
       <c r="BQ90" s="17"/>
       <c r="BR90" s="17"/>
     </row>
-    <row r="91" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="91" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="10">
         <v>115</v>
       </c>
@@ -19451,7 +19430,7 @@
       <c r="S91" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T91" s="27"/>
+      <c r="T91" s="22"/>
       <c r="U91" s="4"/>
       <c r="V91" s="3" t="s">
         <v>1008</v>
@@ -19499,7 +19478,7 @@
         <v>1000</v>
       </c>
       <c r="AY91" s="17"/>
-      <c r="AZ91" s="31">
+      <c r="AZ91" s="26">
         <v>16820603</v>
       </c>
       <c r="BA91" s="4"/>
@@ -19525,7 +19504,7 @@
       <c r="BQ91" s="17"/>
       <c r="BR91" s="17"/>
     </row>
-    <row r="92" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="92" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="10">
         <v>116</v>
       </c>
@@ -19563,7 +19542,7 @@
       <c r="S92" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T92" s="27"/>
+      <c r="T92" s="22"/>
       <c r="U92" s="4"/>
       <c r="V92" s="4"/>
       <c r="W92" s="17"/>
@@ -19609,7 +19588,7 @@
         <v>1022</v>
       </c>
       <c r="AY92" s="17"/>
-      <c r="AZ92" s="31">
+      <c r="AZ92" s="26">
         <v>16820509</v>
       </c>
       <c r="BA92" s="4"/>
@@ -19633,7 +19612,7 @@
       <c r="BQ92" s="17"/>
       <c r="BR92" s="17"/>
     </row>
-    <row r="93" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="93" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="10">
         <v>117</v>
       </c>
@@ -19671,7 +19650,7 @@
       <c r="S93" s="3" t="s">
         <v>923</v>
       </c>
-      <c r="T93" s="27"/>
+      <c r="T93" s="22"/>
       <c r="U93" s="4"/>
       <c r="V93" s="4"/>
       <c r="W93" s="17"/>
@@ -19717,7 +19696,7 @@
         <v>1022</v>
       </c>
       <c r="AY93" s="17"/>
-      <c r="AZ93" s="31">
+      <c r="AZ93" s="26">
         <v>16820503</v>
       </c>
       <c r="BA93" s="4"/>
@@ -19741,7 +19720,7 @@
       <c r="BQ93" s="17"/>
       <c r="BR93" s="17"/>
     </row>
-    <row r="94" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="94" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="10">
         <v>118</v>
       </c>
@@ -19781,7 +19760,7 @@
       <c r="S94" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T94" s="27"/>
+      <c r="T94" s="22"/>
       <c r="U94" s="4"/>
       <c r="V94" s="4"/>
       <c r="W94" s="17"/>
@@ -19827,7 +19806,7 @@
         <v>1041</v>
       </c>
       <c r="AY94" s="17"/>
-      <c r="AZ94" s="31">
+      <c r="AZ94" s="26">
         <v>16820404</v>
       </c>
       <c r="BA94" s="4"/>
@@ -19851,7 +19830,7 @@
       <c r="BQ94" s="17"/>
       <c r="BR94" s="17"/>
     </row>
-    <row r="95" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="95" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="10">
         <v>119</v>
       </c>
@@ -19889,7 +19868,7 @@
       <c r="S95" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T95" s="27"/>
+      <c r="T95" s="22"/>
       <c r="U95" s="4"/>
       <c r="V95" s="4"/>
       <c r="W95" s="17"/>
@@ -19935,7 +19914,7 @@
         <v>1041</v>
       </c>
       <c r="AY95" s="17"/>
-      <c r="AZ95" s="31">
+      <c r="AZ95" s="26">
         <v>16820402</v>
       </c>
       <c r="BA95" s="4"/>
@@ -19959,7 +19938,7 @@
       <c r="BQ95" s="17"/>
       <c r="BR95" s="17"/>
     </row>
-    <row r="96" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="96" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="10">
         <v>120</v>
       </c>
@@ -19997,7 +19976,7 @@
       <c r="S96" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T96" s="27"/>
+      <c r="T96" s="22"/>
       <c r="U96" s="4"/>
       <c r="V96" s="4"/>
       <c r="W96" s="17"/>
@@ -20043,7 +20022,7 @@
         <v>1059</v>
       </c>
       <c r="AY96" s="17"/>
-      <c r="AZ96" s="31">
+      <c r="AZ96" s="26">
         <v>16820305</v>
       </c>
       <c r="BA96" s="4"/>
@@ -20067,7 +20046,7 @@
       <c r="BQ96" s="17"/>
       <c r="BR96" s="17"/>
     </row>
-    <row r="97" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="97" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="10">
         <v>121</v>
       </c>
@@ -20105,7 +20084,7 @@
       <c r="S97" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T97" s="27"/>
+      <c r="T97" s="22"/>
       <c r="U97" s="4"/>
       <c r="V97" s="3" t="s">
         <v>1067</v>
@@ -20153,7 +20132,7 @@
         <v>1059</v>
       </c>
       <c r="AY97" s="17"/>
-      <c r="AZ97" s="31">
+      <c r="AZ97" s="26">
         <v>16820303</v>
       </c>
       <c r="BA97" s="3" t="s">
@@ -20179,7 +20158,7 @@
       <c r="BQ97" s="17"/>
       <c r="BR97" s="17"/>
     </row>
-    <row r="98" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="98" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="10">
         <v>122</v>
       </c>
@@ -20219,7 +20198,7 @@
       <c r="S98" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T98" s="27"/>
+      <c r="T98" s="22"/>
       <c r="U98" s="4"/>
       <c r="V98" s="3" t="s">
         <v>1080</v>
@@ -20267,7 +20246,7 @@
         <v>1084</v>
       </c>
       <c r="AY98" s="17"/>
-      <c r="AZ98" s="31">
+      <c r="AZ98" s="26">
         <v>16820204</v>
       </c>
       <c r="BA98" s="4"/>
@@ -20291,7 +20270,7 @@
       <c r="BQ98" s="17"/>
       <c r="BR98" s="17"/>
     </row>
-    <row r="99" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="99" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="10">
         <v>123</v>
       </c>
@@ -20331,7 +20310,7 @@
       <c r="S99" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T99" s="27"/>
+      <c r="T99" s="22"/>
       <c r="U99" s="4"/>
       <c r="V99" s="4"/>
       <c r="W99" s="17"/>
@@ -20381,7 +20360,7 @@
         <v>1098</v>
       </c>
       <c r="AY99" s="17"/>
-      <c r="AZ99" s="31">
+      <c r="AZ99" s="26">
         <v>16820202</v>
       </c>
       <c r="BA99" s="4"/>
@@ -20405,7 +20384,7 @@
       <c r="BQ99" s="17"/>
       <c r="BR99" s="17"/>
     </row>
-    <row r="100" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="100" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="10">
         <v>124</v>
       </c>
@@ -20443,7 +20422,7 @@
       <c r="S100" s="3" t="s">
         <v>1105</v>
       </c>
-      <c r="T100" s="27"/>
+      <c r="T100" s="22"/>
       <c r="U100" s="4"/>
       <c r="V100" s="4"/>
       <c r="W100" s="17"/>
@@ -20489,7 +20468,7 @@
         <v>1109</v>
       </c>
       <c r="AY100" s="17"/>
-      <c r="AZ100" s="31">
+      <c r="AZ100" s="26">
         <v>16820106</v>
       </c>
       <c r="BA100" s="3" t="s">
@@ -20515,7 +20494,7 @@
       <c r="BQ100" s="17"/>
       <c r="BR100" s="17"/>
     </row>
-    <row r="101" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="101" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="10">
         <v>125</v>
       </c>
@@ -20553,7 +20532,7 @@
       <c r="S101" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T101" s="27"/>
+      <c r="T101" s="22"/>
       <c r="U101" s="4"/>
       <c r="V101" s="4"/>
       <c r="W101" s="17"/>
@@ -20599,7 +20578,7 @@
         <v>1109</v>
       </c>
       <c r="AY101" s="17"/>
-      <c r="AZ101" s="31">
+      <c r="AZ101" s="26">
         <v>16820103</v>
       </c>
       <c r="BA101" s="4"/>
@@ -20623,7 +20602,7 @@
       <c r="BQ101" s="17"/>
       <c r="BR101" s="17"/>
     </row>
-    <row r="102" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="102" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="10">
         <v>126</v>
       </c>
@@ -20661,7 +20640,7 @@
       <c r="S102" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T102" s="27"/>
+      <c r="T102" s="22"/>
       <c r="U102" s="4"/>
       <c r="V102" s="4"/>
       <c r="W102" s="17"/>
@@ -20709,7 +20688,7 @@
         <v>1131</v>
       </c>
       <c r="AY102" s="17"/>
-      <c r="AZ102" s="31">
+      <c r="AZ102" s="26">
         <v>16811211</v>
       </c>
       <c r="BA102" s="4"/>
@@ -20733,7 +20712,7 @@
       <c r="BQ102" s="17"/>
       <c r="BR102" s="17"/>
     </row>
-    <row r="103" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="103" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="10">
         <v>127</v>
       </c>
@@ -20771,7 +20750,7 @@
       <c r="S103" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T103" s="27"/>
+      <c r="T103" s="22"/>
       <c r="U103" s="4"/>
       <c r="V103" s="4"/>
       <c r="W103" s="17"/>
@@ -20817,7 +20796,7 @@
         <v>1131</v>
       </c>
       <c r="AY103" s="17"/>
-      <c r="AZ103" s="31">
+      <c r="AZ103" s="26">
         <v>16811205</v>
       </c>
       <c r="BA103" s="3" t="s">
@@ -20843,7 +20822,7 @@
       <c r="BQ103" s="17"/>
       <c r="BR103" s="17"/>
     </row>
-    <row r="104" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="104" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="10">
         <v>128</v>
       </c>
@@ -20881,7 +20860,7 @@
       <c r="S104" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T104" s="27"/>
+      <c r="T104" s="22"/>
       <c r="U104" s="4"/>
       <c r="V104" s="4"/>
       <c r="W104" s="17"/>
@@ -20927,7 +20906,7 @@
         <v>1152</v>
       </c>
       <c r="AY104" s="17"/>
-      <c r="AZ104" s="31">
+      <c r="AZ104" s="26">
         <v>16811108</v>
       </c>
       <c r="BA104" s="4"/>
@@ -20951,7 +20930,7 @@
       <c r="BQ104" s="17"/>
       <c r="BR104" s="17"/>
     </row>
-    <row r="105" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="105" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="10">
         <v>129</v>
       </c>
@@ -20991,7 +20970,7 @@
       <c r="S105" s="3" t="s">
         <v>923</v>
       </c>
-      <c r="T105" s="27"/>
+      <c r="T105" s="22"/>
       <c r="U105" s="4"/>
       <c r="V105" s="4"/>
       <c r="W105" s="17"/>
@@ -21037,7 +21016,7 @@
         <v>1152</v>
       </c>
       <c r="AY105" s="17"/>
-      <c r="AZ105" s="31">
+      <c r="AZ105" s="26">
         <v>16811104</v>
       </c>
       <c r="BA105" s="4"/>
@@ -21063,7 +21042,7 @@
       <c r="BQ105" s="17"/>
       <c r="BR105" s="17"/>
     </row>
-    <row r="106" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="106" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="10">
         <v>130</v>
       </c>
@@ -21101,7 +21080,7 @@
       <c r="S106" s="3" t="s">
         <v>1167</v>
       </c>
-      <c r="T106" s="27"/>
+      <c r="T106" s="22"/>
       <c r="U106" s="4"/>
       <c r="V106" s="3" t="s">
         <v>1168</v>
@@ -21149,7 +21128,7 @@
         <v>1172</v>
       </c>
       <c r="AY106" s="17"/>
-      <c r="AZ106" s="31">
+      <c r="AZ106" s="26">
         <v>16811008</v>
       </c>
       <c r="BA106" s="3" t="s">
@@ -21175,7 +21154,7 @@
       <c r="BQ106" s="17"/>
       <c r="BR106" s="17"/>
     </row>
-    <row r="107" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="107" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="10">
         <v>131</v>
       </c>
@@ -21215,7 +21194,7 @@
       <c r="S107" s="3" t="s">
         <v>1181</v>
       </c>
-      <c r="T107" s="27"/>
+      <c r="T107" s="22"/>
       <c r="U107" s="4"/>
       <c r="V107" s="4"/>
       <c r="W107" s="17"/>
@@ -21261,7 +21240,7 @@
         <v>1172</v>
       </c>
       <c r="AY107" s="17"/>
-      <c r="AZ107" s="31">
+      <c r="AZ107" s="26">
         <v>16811003</v>
       </c>
       <c r="BA107" s="3" t="s">
@@ -21287,7 +21266,7 @@
       <c r="BQ107" s="17"/>
       <c r="BR107" s="17"/>
     </row>
-    <row r="108" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="108" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="10">
         <v>132</v>
       </c>
@@ -21325,7 +21304,7 @@
       <c r="S108" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T108" s="27"/>
+      <c r="T108" s="22"/>
       <c r="U108" s="4"/>
       <c r="V108" s="3" t="s">
         <v>1192</v>
@@ -21373,7 +21352,7 @@
         <v>1196</v>
       </c>
       <c r="AY108" s="17"/>
-      <c r="AZ108" s="31">
+      <c r="AZ108" s="26">
         <v>16810909</v>
       </c>
       <c r="BA108" s="3" t="s">
@@ -21399,7 +21378,7 @@
       <c r="BQ108" s="17"/>
       <c r="BR108" s="17"/>
     </row>
-    <row r="109" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="109" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="10">
         <v>133</v>
       </c>
@@ -21437,7 +21416,7 @@
       <c r="S109" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T109" s="27"/>
+      <c r="T109" s="22"/>
       <c r="U109" s="4"/>
       <c r="V109" s="3" t="s">
         <v>1205</v>
@@ -21485,7 +21464,7 @@
         <v>1196</v>
       </c>
       <c r="AY109" s="17"/>
-      <c r="AZ109" s="31">
+      <c r="AZ109" s="26">
         <v>16810905</v>
       </c>
       <c r="BA109" s="3" t="s">
@@ -21511,7 +21490,7 @@
       <c r="BQ109" s="17"/>
       <c r="BR109" s="17"/>
     </row>
-    <row r="110" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="110" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="10">
         <v>134</v>
       </c>
@@ -21549,7 +21528,7 @@
       <c r="S110" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T110" s="27"/>
+      <c r="T110" s="22"/>
       <c r="U110" s="4"/>
       <c r="V110" s="4"/>
       <c r="W110" s="17"/>
@@ -21595,7 +21574,7 @@
         <v>1219</v>
       </c>
       <c r="AY110" s="17"/>
-      <c r="AZ110" s="31">
+      <c r="AZ110" s="26">
         <v>16810811</v>
       </c>
       <c r="BA110" s="4"/>
@@ -21619,7 +21598,7 @@
       <c r="BQ110" s="17"/>
       <c r="BR110" s="17"/>
     </row>
-    <row r="111" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="111" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="10">
         <v>135</v>
       </c>
@@ -21657,7 +21636,7 @@
       <c r="S111" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T111" s="27"/>
+      <c r="T111" s="22"/>
       <c r="U111" s="4"/>
       <c r="V111" s="3" t="s">
         <v>1226</v>
@@ -21705,7 +21684,7 @@
         <v>1219</v>
       </c>
       <c r="AY111" s="17"/>
-      <c r="AZ111" s="31">
+      <c r="AZ111" s="26">
         <v>16810805</v>
       </c>
       <c r="BA111" s="3" t="s">
@@ -21731,7 +21710,7 @@
       <c r="BQ111" s="17"/>
       <c r="BR111" s="17"/>
     </row>
-    <row r="112" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="112" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="10">
         <v>136</v>
       </c>
@@ -21769,7 +21748,7 @@
       <c r="S112" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T112" s="27"/>
+      <c r="T112" s="22"/>
       <c r="U112" s="4"/>
       <c r="V112" s="4"/>
       <c r="W112" s="17"/>
@@ -21815,7 +21794,7 @@
         <v>1240</v>
       </c>
       <c r="AY112" s="17"/>
-      <c r="AZ112" s="31">
+      <c r="AZ112" s="26">
         <v>16810700</v>
       </c>
       <c r="BA112" s="4"/>
@@ -21839,7 +21818,7 @@
       <c r="BQ112" s="17"/>
       <c r="BR112" s="17"/>
     </row>
-    <row r="113" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="113" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="10">
         <v>137</v>
       </c>
@@ -21877,7 +21856,7 @@
       <c r="S113" s="3" t="s">
         <v>709</v>
       </c>
-      <c r="T113" s="27"/>
+      <c r="T113" s="22"/>
       <c r="U113" s="4"/>
       <c r="V113" s="4"/>
       <c r="W113" s="17"/>
@@ -21923,7 +21902,7 @@
         <v>1240</v>
       </c>
       <c r="AY113" s="17"/>
-      <c r="AZ113" s="31">
+      <c r="AZ113" s="26">
         <v>16810701</v>
       </c>
       <c r="BA113" s="4"/>
@@ -21949,7 +21928,7 @@
       <c r="BQ113" s="17"/>
       <c r="BR113" s="17"/>
     </row>
-    <row r="114" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="114" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="10">
         <v>138</v>
       </c>
@@ -21989,7 +21968,7 @@
       <c r="S114" s="3" t="s">
         <v>1258</v>
       </c>
-      <c r="T114" s="27"/>
+      <c r="T114" s="22"/>
       <c r="U114" s="4"/>
       <c r="V114" s="3" t="s">
         <v>1259</v>
@@ -22041,7 +22020,7 @@
         <v>1266</v>
       </c>
       <c r="AY114" s="17"/>
-      <c r="AZ114" s="31">
+      <c r="AZ114" s="26">
         <v>168106071</v>
       </c>
       <c r="BA114" s="4"/>
@@ -22067,7 +22046,7 @@
       <c r="BQ114" s="17"/>
       <c r="BR114" s="17"/>
     </row>
-    <row r="115" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="115" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="10">
         <v>139</v>
       </c>
@@ -22107,7 +22086,7 @@
       <c r="S115" s="3" t="s">
         <v>1275</v>
       </c>
-      <c r="T115" s="27"/>
+      <c r="T115" s="22"/>
       <c r="U115" s="4"/>
       <c r="V115" s="3" t="s">
         <v>1276</v>
@@ -22155,7 +22134,7 @@
         <v>1266</v>
       </c>
       <c r="AY115" s="17"/>
-      <c r="AZ115" s="31">
+      <c r="AZ115" s="26">
         <v>16810605</v>
       </c>
       <c r="BA115" s="4"/>
@@ -22181,7 +22160,7 @@
       <c r="BQ115" s="17"/>
       <c r="BR115" s="17"/>
     </row>
-    <row r="116" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="116" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="10">
         <v>140</v>
       </c>
@@ -22221,7 +22200,7 @@
       <c r="S116" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T116" s="27"/>
+      <c r="T116" s="22"/>
       <c r="U116" s="4"/>
       <c r="V116" s="4"/>
       <c r="W116" s="17"/>
@@ -22267,7 +22246,7 @@
         <v>1291</v>
       </c>
       <c r="AY116" s="17"/>
-      <c r="AZ116" s="31">
+      <c r="AZ116" s="26">
         <v>16810507</v>
       </c>
       <c r="BA116" s="4"/>
@@ -22291,7 +22270,7 @@
       <c r="BQ116" s="17"/>
       <c r="BR116" s="17"/>
     </row>
-    <row r="117" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="117" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="10">
         <v>141</v>
       </c>
@@ -22331,7 +22310,7 @@
       <c r="S117" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T117" s="27"/>
+      <c r="T117" s="22"/>
       <c r="U117" s="4"/>
       <c r="V117" s="4"/>
       <c r="W117" s="17"/>
@@ -22377,7 +22356,7 @@
         <v>1291</v>
       </c>
       <c r="AY117" s="17"/>
-      <c r="AZ117" s="31">
+      <c r="AZ117" s="26">
         <v>16810502</v>
       </c>
       <c r="BA117" s="3" t="s">
@@ -22403,7 +22382,7 @@
       <c r="BQ117" s="17"/>
       <c r="BR117" s="17"/>
     </row>
-    <row r="118" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="118" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="10">
         <v>142</v>
       </c>
@@ -22443,7 +22422,7 @@
       <c r="S118" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T118" s="27"/>
+      <c r="T118" s="22"/>
       <c r="U118" s="4"/>
       <c r="V118" s="4"/>
       <c r="W118" s="17"/>
@@ -22489,7 +22468,7 @@
         <v>1312</v>
       </c>
       <c r="AY118" s="17"/>
-      <c r="AZ118" s="31">
+      <c r="AZ118" s="26">
         <v>16810405</v>
       </c>
       <c r="BA118" s="3" t="s">
@@ -22515,7 +22494,7 @@
       <c r="BQ118" s="17"/>
       <c r="BR118" s="17"/>
     </row>
-    <row r="119" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="119" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="10">
         <v>143</v>
       </c>
@@ -22555,7 +22534,7 @@
       <c r="S119" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T119" s="27"/>
+      <c r="T119" s="22"/>
       <c r="U119" s="4"/>
       <c r="V119" s="4"/>
       <c r="W119" s="17"/>
@@ -22601,7 +22580,7 @@
         <v>1312</v>
       </c>
       <c r="AY119" s="17"/>
-      <c r="AZ119" s="31">
+      <c r="AZ119" s="26">
         <v>16810403</v>
       </c>
       <c r="BA119" s="4"/>
@@ -22625,7 +22604,7 @@
       <c r="BQ119" s="17"/>
       <c r="BR119" s="17"/>
     </row>
-    <row r="120" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="120" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="10">
         <v>144</v>
       </c>
@@ -22663,7 +22642,7 @@
       <c r="S120" s="3" t="s">
         <v>1330</v>
       </c>
-      <c r="T120" s="27"/>
+      <c r="T120" s="22"/>
       <c r="U120" s="4"/>
       <c r="V120" s="4"/>
       <c r="W120" s="17"/>
@@ -22709,7 +22688,7 @@
         <v>1334</v>
       </c>
       <c r="AY120" s="17"/>
-      <c r="AZ120" s="31">
+      <c r="AZ120" s="26">
         <v>16810307</v>
       </c>
       <c r="BA120" s="4"/>
@@ -22739,7 +22718,7 @@
       <c r="BQ120" s="17"/>
       <c r="BR120" s="17"/>
     </row>
-    <row r="121" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="121" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="10">
         <v>145</v>
       </c>
@@ -22777,7 +22756,7 @@
       <c r="S121" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T121" s="27"/>
+      <c r="T121" s="22"/>
       <c r="U121" s="4"/>
       <c r="V121" s="4"/>
       <c r="W121" s="17"/>
@@ -22823,7 +22802,7 @@
         <v>1334</v>
       </c>
       <c r="AY121" s="17"/>
-      <c r="AZ121" s="31">
+      <c r="AZ121" s="26">
         <v>16810305</v>
       </c>
       <c r="BA121" s="4"/>
@@ -22847,7 +22826,7 @@
       <c r="BQ121" s="17"/>
       <c r="BR121" s="17"/>
     </row>
-    <row r="122" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="122" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="10">
         <v>146</v>
       </c>
@@ -22889,7 +22868,7 @@
       <c r="S122" s="3" t="s">
         <v>1330</v>
       </c>
-      <c r="T122" s="27"/>
+      <c r="T122" s="22"/>
       <c r="U122" s="4"/>
       <c r="V122" s="4"/>
       <c r="W122" s="17"/>
@@ -22935,7 +22914,7 @@
         <v>1358</v>
       </c>
       <c r="AY122" s="17"/>
-      <c r="AZ122" s="31">
+      <c r="AZ122" s="26">
         <v>16810205</v>
       </c>
       <c r="BA122" s="4"/>
@@ -22965,7 +22944,7 @@
       <c r="BQ122" s="17"/>
       <c r="BR122" s="17"/>
     </row>
-    <row r="123" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="123" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="10">
         <v>147</v>
       </c>
@@ -23003,7 +22982,7 @@
       <c r="S123" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T123" s="27"/>
+      <c r="T123" s="22"/>
       <c r="U123" s="4"/>
       <c r="V123" s="4"/>
       <c r="W123" s="17"/>
@@ -23049,7 +23028,7 @@
         <v>1358</v>
       </c>
       <c r="AY123" s="17"/>
-      <c r="AZ123" s="31">
+      <c r="AZ123" s="26">
         <v>16810201</v>
       </c>
       <c r="BA123" s="4"/>
@@ -23073,7 +23052,7 @@
       <c r="BQ123" s="17"/>
       <c r="BR123" s="17"/>
     </row>
-    <row r="124" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="124" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="10">
         <v>148</v>
       </c>
@@ -23111,7 +23090,7 @@
       <c r="S124" s="3" t="s">
         <v>1330</v>
       </c>
-      <c r="T124" s="27"/>
+      <c r="T124" s="22"/>
       <c r="U124" s="4"/>
       <c r="V124" s="4"/>
       <c r="W124" s="17"/>
@@ -23157,7 +23136,7 @@
         <v>1377</v>
       </c>
       <c r="AY124" s="17"/>
-      <c r="AZ124" s="31">
+      <c r="AZ124" s="26">
         <v>16810102</v>
       </c>
       <c r="BA124" s="4"/>
@@ -23187,7 +23166,7 @@
       <c r="BQ124" s="17"/>
       <c r="BR124" s="17"/>
     </row>
-    <row r="125" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="125" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="10">
         <v>149</v>
       </c>
@@ -23227,7 +23206,7 @@
       <c r="S125" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T125" s="28" t="s">
+      <c r="T125" s="24" t="s">
         <v>1386</v>
       </c>
       <c r="U125" s="4"/>
@@ -23277,7 +23256,7 @@
         <v>1377</v>
       </c>
       <c r="AY125" s="17"/>
-      <c r="AZ125" s="31">
+      <c r="AZ125" s="26">
         <v>16810101</v>
       </c>
       <c r="BA125" s="3" t="s">
@@ -23303,7 +23282,7 @@
       <c r="BQ125" s="17"/>
       <c r="BR125" s="17"/>
     </row>
-    <row r="126" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="126" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="10">
         <v>150</v>
       </c>
@@ -23341,7 +23320,7 @@
       <c r="S126" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T126" s="27"/>
+      <c r="T126" s="22"/>
       <c r="U126" s="4"/>
       <c r="V126" s="4"/>
       <c r="W126" s="17"/>
@@ -23387,7 +23366,7 @@
         <v>1401</v>
       </c>
       <c r="AY126" s="17"/>
-      <c r="AZ126" s="31">
+      <c r="AZ126" s="26">
         <v>16801204</v>
       </c>
       <c r="BA126" s="4"/>
@@ -23411,7 +23390,7 @@
       <c r="BQ126" s="17"/>
       <c r="BR126" s="17"/>
     </row>
-    <row r="127" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="127" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="10">
         <v>151</v>
       </c>
@@ -23449,7 +23428,7 @@
       <c r="S127" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T127" s="27"/>
+      <c r="T127" s="22"/>
       <c r="U127" s="4"/>
       <c r="V127" s="4"/>
       <c r="W127" s="17"/>
@@ -23495,7 +23474,7 @@
         <v>1401</v>
       </c>
       <c r="AY127" s="17"/>
-      <c r="AZ127" s="31">
+      <c r="AZ127" s="26">
         <v>16801202</v>
       </c>
       <c r="BA127" s="4"/>
@@ -23519,7 +23498,7 @@
       <c r="BQ127" s="17"/>
       <c r="BR127" s="17"/>
     </row>
-    <row r="128" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="128" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="10">
         <v>152</v>
       </c>
@@ -23557,7 +23536,7 @@
       <c r="S128" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T128" s="27"/>
+      <c r="T128" s="22"/>
       <c r="U128" s="4"/>
       <c r="V128" s="4"/>
       <c r="W128" s="17"/>
@@ -23603,7 +23582,7 @@
         <v>1419</v>
       </c>
       <c r="AY128" s="17"/>
-      <c r="AZ128" s="31">
+      <c r="AZ128" s="26">
         <v>16801106</v>
       </c>
       <c r="BA128" s="4"/>
@@ -23627,7 +23606,7 @@
       <c r="BQ128" s="17"/>
       <c r="BR128" s="17"/>
     </row>
-    <row r="129" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="129" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="10">
         <v>153</v>
       </c>
@@ -23667,7 +23646,7 @@
       <c r="S129" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T129" s="28" t="s">
+      <c r="T129" s="24" t="s">
         <v>1428</v>
       </c>
       <c r="U129" s="4"/>
@@ -23715,7 +23694,7 @@
         <v>1419</v>
       </c>
       <c r="AY129" s="17"/>
-      <c r="AZ129" s="31">
+      <c r="AZ129" s="26">
         <v>16801102</v>
       </c>
       <c r="BA129" s="3" t="s">
@@ -23741,7 +23720,7 @@
       <c r="BQ129" s="17"/>
       <c r="BR129" s="17"/>
     </row>
-    <row r="130" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="130" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="10">
         <v>154</v>
       </c>
@@ -23783,7 +23762,7 @@
       <c r="S130" s="3" t="s">
         <v>1441</v>
       </c>
-      <c r="T130" s="27"/>
+      <c r="T130" s="22"/>
       <c r="U130" s="4"/>
       <c r="V130" s="3" t="s">
         <v>1442</v>
@@ -23831,7 +23810,7 @@
         <v>1446</v>
       </c>
       <c r="AY130" s="17"/>
-      <c r="AZ130" s="31">
+      <c r="AZ130" s="26">
         <v>16801006</v>
       </c>
       <c r="BA130" s="4"/>
@@ -23857,7 +23836,7 @@
       <c r="BQ130" s="17"/>
       <c r="BR130" s="17"/>
     </row>
-    <row r="131" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="131" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="10">
         <v>155</v>
       </c>
@@ -23897,7 +23876,7 @@
       <c r="S131" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T131" s="27"/>
+      <c r="T131" s="22"/>
       <c r="U131" s="4"/>
       <c r="V131" s="4"/>
       <c r="W131" s="17"/>
@@ -23943,7 +23922,7 @@
         <v>1446</v>
       </c>
       <c r="AY131" s="17"/>
-      <c r="AZ131" s="31">
+      <c r="AZ131" s="26">
         <v>16801002</v>
       </c>
       <c r="BA131" s="4"/>
@@ -23967,7 +23946,7 @@
       <c r="BQ131" s="17"/>
       <c r="BR131" s="17"/>
     </row>
-    <row r="132" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="132" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="10">
         <v>156</v>
       </c>
@@ -24005,7 +23984,7 @@
       <c r="S132" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T132" s="27"/>
+      <c r="T132" s="22"/>
       <c r="U132" s="4"/>
       <c r="V132" s="4"/>
       <c r="W132" s="17"/>
@@ -24051,7 +24030,7 @@
         <v>1466</v>
       </c>
       <c r="AY132" s="17"/>
-      <c r="AZ132" s="31">
+      <c r="AZ132" s="26">
         <v>16800911</v>
       </c>
       <c r="BA132" s="4"/>
@@ -24075,7 +24054,7 @@
       <c r="BQ132" s="17"/>
       <c r="BR132" s="17"/>
     </row>
-    <row r="133" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="133" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="10">
         <v>157</v>
       </c>
@@ -24113,7 +24092,7 @@
       <c r="S133" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T133" s="27"/>
+      <c r="T133" s="22"/>
       <c r="U133" s="4"/>
       <c r="V133" s="3" t="s">
         <v>1474</v>
@@ -24161,7 +24140,7 @@
         <v>1466</v>
       </c>
       <c r="AY133" s="17"/>
-      <c r="AZ133" s="31">
+      <c r="AZ133" s="26">
         <v>16800904</v>
       </c>
       <c r="BA133" s="4"/>
@@ -24185,7 +24164,7 @@
       <c r="BQ133" s="17"/>
       <c r="BR133" s="17"/>
     </row>
-    <row r="134" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="134" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="10">
         <v>158</v>
       </c>
@@ -24225,7 +24204,7 @@
       <c r="S134" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T134" s="27"/>
+      <c r="T134" s="22"/>
       <c r="U134" s="4"/>
       <c r="V134" s="4"/>
       <c r="W134" s="17"/>
@@ -24273,7 +24252,7 @@
         <v>1489</v>
       </c>
       <c r="AY134" s="17"/>
-      <c r="AZ134" s="31">
+      <c r="AZ134" s="26">
         <v>16800811</v>
       </c>
       <c r="BA134" s="4"/>
@@ -24297,7 +24276,7 @@
       <c r="BQ134" s="17"/>
       <c r="BR134" s="17"/>
     </row>
-    <row r="135" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="135" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="10">
         <v>159</v>
       </c>
@@ -24335,7 +24314,7 @@
       <c r="S135" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T135" s="27"/>
+      <c r="T135" s="22"/>
       <c r="U135" s="4"/>
       <c r="V135" s="3" t="s">
         <v>1497</v>
@@ -24385,7 +24364,7 @@
         <v>1489</v>
       </c>
       <c r="AY135" s="17"/>
-      <c r="AZ135" s="31">
+      <c r="AZ135" s="26">
         <v>16800803</v>
       </c>
       <c r="BA135" s="4"/>
@@ -24409,7 +24388,7 @@
       <c r="BQ135" s="17"/>
       <c r="BR135" s="17"/>
     </row>
-    <row r="136" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="136" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="10">
         <v>160</v>
       </c>
@@ -24449,7 +24428,7 @@
       <c r="S136" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T136" s="27"/>
+      <c r="T136" s="22"/>
       <c r="U136" s="4"/>
       <c r="V136" s="4"/>
       <c r="W136" s="17"/>
@@ -24497,7 +24476,7 @@
         <v>1512</v>
       </c>
       <c r="AY136" s="17"/>
-      <c r="AZ136" s="31">
+      <c r="AZ136" s="26">
         <v>16800706</v>
       </c>
       <c r="BA136" s="4"/>
@@ -24521,7 +24500,7 @@
       <c r="BQ136" s="17"/>
       <c r="BR136" s="17"/>
     </row>
-    <row r="137" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="137" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="10">
         <v>161</v>
       </c>
@@ -24559,7 +24538,7 @@
       <c r="S137" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T137" s="27"/>
+      <c r="T137" s="22"/>
       <c r="U137" s="4"/>
       <c r="V137" s="3" t="s">
         <v>1519</v>
@@ -24607,7 +24586,7 @@
         <v>1512</v>
       </c>
       <c r="AY137" s="17"/>
-      <c r="AZ137" s="31">
+      <c r="AZ137" s="26">
         <v>168007011</v>
       </c>
       <c r="BA137" s="4"/>
@@ -24631,7 +24610,7 @@
       <c r="BQ137" s="17"/>
       <c r="BR137" s="17"/>
     </row>
-    <row r="138" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="138" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="10">
         <v>162</v>
       </c>
@@ -24671,7 +24650,7 @@
       <c r="S138" s="3" t="s">
         <v>1530</v>
       </c>
-      <c r="T138" s="27"/>
+      <c r="T138" s="22"/>
       <c r="U138" s="4"/>
       <c r="V138" s="4"/>
       <c r="W138" s="17"/>
@@ -24717,7 +24696,7 @@
         <v>1534</v>
       </c>
       <c r="AY138" s="17"/>
-      <c r="AZ138" s="31">
+      <c r="AZ138" s="26">
         <v>16800604</v>
       </c>
       <c r="BA138" s="4"/>
@@ -24745,7 +24724,7 @@
       <c r="BQ138" s="17"/>
       <c r="BR138" s="17"/>
     </row>
-    <row r="139" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="139" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="10">
         <v>163</v>
       </c>
@@ -24787,7 +24766,7 @@
       <c r="S139" s="3" t="s">
         <v>1530</v>
       </c>
-      <c r="T139" s="27"/>
+      <c r="T139" s="22"/>
       <c r="U139" s="4"/>
       <c r="V139" s="4"/>
       <c r="W139" s="17"/>
@@ -24833,7 +24812,7 @@
         <v>1546</v>
       </c>
       <c r="AY139" s="17"/>
-      <c r="AZ139" s="31">
+      <c r="AZ139" s="26">
         <v>16800601</v>
       </c>
       <c r="BA139" s="4"/>
@@ -24859,7 +24838,7 @@
       <c r="BQ139" s="17"/>
       <c r="BR139" s="17"/>
     </row>
-    <row r="140" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="140" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="10">
         <v>164</v>
       </c>
@@ -24897,7 +24876,7 @@
       <c r="S140" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T140" s="27"/>
+      <c r="T140" s="22"/>
       <c r="U140" s="4"/>
       <c r="V140" s="4"/>
       <c r="W140" s="17"/>
@@ -24943,7 +24922,7 @@
         <v>1556</v>
       </c>
       <c r="AY140" s="17"/>
-      <c r="AZ140" s="31">
+      <c r="AZ140" s="26">
         <v>16800509</v>
       </c>
       <c r="BA140" s="4"/>
@@ -24967,7 +24946,7 @@
       <c r="BQ140" s="17"/>
       <c r="BR140" s="17"/>
     </row>
-    <row r="141" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="141" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="10">
         <v>165</v>
       </c>
@@ -25007,7 +24986,7 @@
       <c r="S141" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T141" s="27"/>
+      <c r="T141" s="22"/>
       <c r="U141" s="4"/>
       <c r="V141" s="4"/>
       <c r="W141" s="17"/>
@@ -25053,7 +25032,7 @@
         <v>1556</v>
       </c>
       <c r="AY141" s="17"/>
-      <c r="AZ141" s="31">
+      <c r="AZ141" s="26">
         <v>16800501</v>
       </c>
       <c r="BA141" s="4"/>
@@ -25077,7 +25056,7 @@
       <c r="BQ141" s="17"/>
       <c r="BR141" s="17"/>
     </row>
-    <row r="142" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="142" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="10">
         <v>166</v>
       </c>
@@ -25117,7 +25096,7 @@
       <c r="S142" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T142" s="27"/>
+      <c r="T142" s="22"/>
       <c r="U142" s="4"/>
       <c r="V142" s="4"/>
       <c r="W142" s="17"/>
@@ -25163,7 +25142,7 @@
         <v>1576</v>
       </c>
       <c r="AY142" s="17"/>
-      <c r="AZ142" s="31">
+      <c r="AZ142" s="26">
         <v>16800402</v>
       </c>
       <c r="BA142" s="4"/>
@@ -25189,7 +25168,7 @@
       <c r="BQ142" s="17"/>
       <c r="BR142" s="17"/>
     </row>
-    <row r="143" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="143" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="10">
         <v>167</v>
       </c>
@@ -25227,7 +25206,7 @@
       <c r="S143" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T143" s="27"/>
+      <c r="T143" s="22"/>
       <c r="U143" s="4"/>
       <c r="V143" s="4"/>
       <c r="W143" s="17"/>
@@ -25273,7 +25252,7 @@
         <v>1588</v>
       </c>
       <c r="AY143" s="17"/>
-      <c r="AZ143" s="31">
+      <c r="AZ143" s="26">
         <v>16800306</v>
       </c>
       <c r="BA143" s="4"/>
@@ -25297,7 +25276,7 @@
       <c r="BQ143" s="17"/>
       <c r="BR143" s="17"/>
     </row>
-    <row r="144" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="144" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="10">
         <v>168</v>
       </c>
@@ -25335,7 +25314,7 @@
       <c r="S144" s="3" t="s">
         <v>1595</v>
       </c>
-      <c r="T144" s="27"/>
+      <c r="T144" s="22"/>
       <c r="U144" s="4"/>
       <c r="V144" s="3" t="s">
         <v>1596</v>
@@ -25383,7 +25362,7 @@
         <v>1588</v>
       </c>
       <c r="AY144" s="17"/>
-      <c r="AZ144" s="31">
+      <c r="AZ144" s="26">
         <v>16800302</v>
       </c>
       <c r="BA144" s="4"/>
@@ -25407,7 +25386,7 @@
       <c r="BQ144" s="17"/>
       <c r="BR144" s="17"/>
     </row>
-    <row r="145" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="145" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="10">
         <v>169</v>
       </c>
@@ -25449,7 +25428,7 @@
       <c r="S145" s="3" t="s">
         <v>1595</v>
       </c>
-      <c r="T145" s="27"/>
+      <c r="T145" s="22"/>
       <c r="U145" s="4"/>
       <c r="V145" s="3" t="s">
         <v>1608</v>
@@ -25499,7 +25478,7 @@
         <v>1612</v>
       </c>
       <c r="AY145" s="17"/>
-      <c r="AZ145" s="31">
+      <c r="AZ145" s="26">
         <v>16800212</v>
       </c>
       <c r="BA145" s="4"/>
@@ -25525,7 +25504,7 @@
       <c r="BQ145" s="17"/>
       <c r="BR145" s="17"/>
     </row>
-    <row r="146" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="146" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="10">
         <v>170</v>
       </c>
@@ -25565,7 +25544,7 @@
       <c r="S146" s="3" t="s">
         <v>709</v>
       </c>
-      <c r="T146" s="27"/>
+      <c r="T146" s="22"/>
       <c r="U146" s="4"/>
       <c r="V146" s="4"/>
       <c r="W146" s="17"/>
@@ -25611,7 +25590,7 @@
         <v>1612</v>
       </c>
       <c r="AY146" s="17"/>
-      <c r="AZ146" s="31">
+      <c r="AZ146" s="26">
         <v>16800202</v>
       </c>
       <c r="BA146" s="4"/>
@@ -25635,7 +25614,7 @@
       <c r="BQ146" s="17"/>
       <c r="BR146" s="17"/>
     </row>
-    <row r="147" spans="1:70" ht="48.6" customHeight="1">
+    <row r="147" spans="1:70" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="10">
         <v>171</v>
       </c>
@@ -25677,7 +25656,7 @@
       <c r="S147" s="3" t="s">
         <v>1002</v>
       </c>
-      <c r="T147" s="27"/>
+      <c r="T147" s="22"/>
       <c r="U147" s="4"/>
       <c r="V147" s="3" t="s">
         <v>1632</v>
@@ -25727,7 +25706,7 @@
         <v>1638</v>
       </c>
       <c r="AY147" s="17"/>
-      <c r="AZ147" s="31">
+      <c r="AZ147" s="26">
         <v>16800104</v>
       </c>
       <c r="BA147" s="4"/>
@@ -25751,7 +25730,7 @@
       <c r="BQ147" s="17"/>
       <c r="BR147" s="17"/>
     </row>
-    <row r="148" spans="1:70" ht="47.4" customHeight="1">
+    <row r="148" spans="1:70" ht="47.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="10">
         <v>172</v>
       </c>
@@ -25791,7 +25770,7 @@
       <c r="S148" s="3" t="s">
         <v>709</v>
       </c>
-      <c r="T148" s="27"/>
+      <c r="T148" s="22"/>
       <c r="U148" s="3" t="s">
         <v>1645</v>
       </c>
@@ -25839,7 +25818,7 @@
         <v>1650</v>
       </c>
       <c r="AY148" s="17"/>
-      <c r="AZ148" s="31">
+      <c r="AZ148" s="26">
         <v>16791205</v>
       </c>
       <c r="BA148" s="4"/>
@@ -25863,7 +25842,7 @@
       <c r="BQ148" s="17"/>
       <c r="BR148" s="17"/>
     </row>
-    <row r="149" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="149" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="10">
         <v>173</v>
       </c>
@@ -25903,7 +25882,7 @@
       <c r="S149" s="3" t="s">
         <v>1002</v>
       </c>
-      <c r="T149" s="27"/>
+      <c r="T149" s="22"/>
       <c r="U149" s="4"/>
       <c r="V149" s="3" t="s">
         <v>1632</v>
@@ -25951,7 +25930,7 @@
         <v>1650</v>
       </c>
       <c r="AY149" s="17"/>
-      <c r="AZ149" s="31">
+      <c r="AZ149" s="26">
         <v>16791201</v>
       </c>
       <c r="BA149" s="4"/>
@@ -25975,7 +25954,7 @@
       <c r="BQ149" s="17"/>
       <c r="BR149" s="17"/>
     </row>
-    <row r="150" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="150" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="10">
         <v>174</v>
       </c>
@@ -26015,7 +25994,7 @@
       <c r="S150" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T150" s="27"/>
+      <c r="T150" s="22"/>
       <c r="U150" s="4"/>
       <c r="V150" s="3" t="s">
         <v>1632</v>
@@ -26063,7 +26042,7 @@
         <v>1671</v>
       </c>
       <c r="AY150" s="17"/>
-      <c r="AZ150" s="31">
+      <c r="AZ150" s="26">
         <v>167911071</v>
       </c>
       <c r="BA150" s="4"/>
@@ -26089,7 +26068,7 @@
       <c r="BQ150" s="17"/>
       <c r="BR150" s="17"/>
     </row>
-    <row r="151" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="151" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="10">
         <v>175</v>
       </c>
@@ -26127,7 +26106,7 @@
       <c r="S151" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T151" s="27"/>
+      <c r="T151" s="22"/>
       <c r="U151" s="4"/>
       <c r="V151" s="3" t="s">
         <v>1679</v>
@@ -26175,7 +26154,7 @@
         <v>1671</v>
       </c>
       <c r="AY151" s="17"/>
-      <c r="AZ151" s="31">
+      <c r="AZ151" s="26">
         <v>167911021</v>
       </c>
       <c r="BA151" s="4"/>
@@ -26199,7 +26178,7 @@
       <c r="BQ151" s="17"/>
       <c r="BR151" s="17"/>
     </row>
-    <row r="152" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="152" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="10">
         <v>176</v>
       </c>
@@ -26241,7 +26220,7 @@
       <c r="S152" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T152" s="27"/>
+      <c r="T152" s="22"/>
       <c r="U152" s="4"/>
       <c r="V152" s="3" t="s">
         <v>1692</v>
@@ -26291,7 +26270,7 @@
         <v>1696</v>
       </c>
       <c r="AY152" s="17"/>
-      <c r="AZ152" s="31">
+      <c r="AZ152" s="26">
         <v>16791007</v>
       </c>
       <c r="BA152" s="4"/>
@@ -26315,7 +26294,7 @@
       <c r="BQ152" s="17"/>
       <c r="BR152" s="17"/>
     </row>
-    <row r="153" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="153" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="10">
         <v>177</v>
       </c>
@@ -26357,7 +26336,7 @@
       <c r="S153" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T153" s="27"/>
+      <c r="T153" s="22"/>
       <c r="U153" s="4"/>
       <c r="V153" s="3" t="s">
         <v>1705</v>
@@ -26407,7 +26386,7 @@
         <v>1696</v>
       </c>
       <c r="AY153" s="17"/>
-      <c r="AZ153" s="31">
+      <c r="AZ153" s="26">
         <v>167910021</v>
       </c>
       <c r="BA153" s="4"/>
@@ -26431,7 +26410,7 @@
       <c r="BQ153" s="17"/>
       <c r="BR153" s="17"/>
     </row>
-    <row r="154" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="154" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="10">
         <v>178</v>
       </c>
@@ -26469,7 +26448,7 @@
       <c r="S154" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T154" s="27"/>
+      <c r="T154" s="22"/>
       <c r="U154" s="4"/>
       <c r="V154" s="4"/>
       <c r="W154" s="17"/>
@@ -26515,7 +26494,7 @@
         <v>1719</v>
       </c>
       <c r="AY154" s="17"/>
-      <c r="AZ154" s="31">
+      <c r="AZ154" s="26">
         <v>16790904</v>
       </c>
       <c r="BA154" s="4"/>
@@ -26539,7 +26518,7 @@
       <c r="BQ154" s="17"/>
       <c r="BR154" s="17"/>
     </row>
-    <row r="155" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="155" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="10">
         <v>179</v>
       </c>
@@ -26579,7 +26558,7 @@
       <c r="S155" s="3" t="s">
         <v>1727</v>
       </c>
-      <c r="T155" s="27"/>
+      <c r="T155" s="22"/>
       <c r="U155" s="4"/>
       <c r="V155" s="4"/>
       <c r="W155" s="17"/>
@@ -26625,7 +26604,7 @@
         <v>1732</v>
       </c>
       <c r="AY155" s="17"/>
-      <c r="AZ155" s="31">
+      <c r="AZ155" s="26">
         <v>16790810</v>
       </c>
       <c r="BA155" s="4"/>
@@ -26649,7 +26628,7 @@
       <c r="BQ155" s="17"/>
       <c r="BR155" s="17"/>
     </row>
-    <row r="156" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="156" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="10">
         <v>180</v>
       </c>
@@ -26689,7 +26668,7 @@
       <c r="S156" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T156" s="27"/>
+      <c r="T156" s="22"/>
       <c r="U156" s="4"/>
       <c r="V156" s="4"/>
       <c r="W156" s="17"/>
@@ -26735,7 +26714,7 @@
         <v>1732</v>
       </c>
       <c r="AY156" s="17"/>
-      <c r="AZ156" s="31">
+      <c r="AZ156" s="26">
         <v>167908051</v>
       </c>
       <c r="BA156" s="4"/>
@@ -26759,7 +26738,7 @@
       <c r="BQ156" s="17"/>
       <c r="BR156" s="17"/>
     </row>
-    <row r="157" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="157" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="10">
         <v>181</v>
       </c>
@@ -26799,7 +26778,7 @@
       <c r="S157" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T157" s="27"/>
+      <c r="T157" s="22"/>
       <c r="U157" s="4"/>
       <c r="V157" s="3" t="s">
         <v>1750</v>
@@ -26847,7 +26826,7 @@
         <v>1755</v>
       </c>
       <c r="AY157" s="17"/>
-      <c r="AZ157" s="31">
+      <c r="AZ157" s="26">
         <v>16791501</v>
       </c>
       <c r="BA157" s="4"/>
@@ -26871,7 +26850,7 @@
       <c r="BQ157" s="17"/>
       <c r="BR157" s="17"/>
     </row>
-    <row r="158" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="158" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="10">
         <v>182</v>
       </c>
@@ -26913,7 +26892,7 @@
       <c r="S158" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T158" s="27"/>
+      <c r="T158" s="22"/>
       <c r="U158" s="4"/>
       <c r="V158" s="3" t="s">
         <v>1764</v>
@@ -26963,7 +26942,7 @@
         <v>1755</v>
       </c>
       <c r="AY158" s="17"/>
-      <c r="AZ158" s="31">
+      <c r="AZ158" s="26">
         <v>16790709</v>
       </c>
       <c r="BA158" s="4"/>
@@ -26987,7 +26966,7 @@
       <c r="BQ158" s="17"/>
       <c r="BR158" s="17"/>
     </row>
-    <row r="159" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="159" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="10">
         <v>183</v>
       </c>
@@ -27027,7 +27006,7 @@
       <c r="S159" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T159" s="27"/>
+      <c r="T159" s="22"/>
       <c r="U159" s="4"/>
       <c r="V159" s="4"/>
       <c r="W159" s="17"/>
@@ -27073,7 +27052,7 @@
         <v>1755</v>
       </c>
       <c r="AY159" s="17"/>
-      <c r="AZ159" s="31">
+      <c r="AZ159" s="26">
         <v>16790703</v>
       </c>
       <c r="BA159" s="4"/>
@@ -27097,7 +27076,7 @@
       <c r="BQ159" s="17"/>
       <c r="BR159" s="17"/>
     </row>
-    <row r="160" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="160" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="10">
         <v>184</v>
       </c>
@@ -27137,7 +27116,7 @@
       <c r="S160" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T160" s="27"/>
+      <c r="T160" s="22"/>
       <c r="U160" s="4"/>
       <c r="V160" s="4"/>
       <c r="W160" s="17"/>
@@ -27185,7 +27164,7 @@
         <v>1791</v>
       </c>
       <c r="AY160" s="17"/>
-      <c r="AZ160" s="31">
+      <c r="AZ160" s="26">
         <v>16790610</v>
       </c>
       <c r="BA160" s="4"/>
@@ -27209,7 +27188,7 @@
       <c r="BQ160" s="17"/>
       <c r="BR160" s="17"/>
     </row>
-    <row r="161" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="161" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="10">
         <v>185</v>
       </c>
@@ -27249,7 +27228,7 @@
       <c r="S161" s="3" t="s">
         <v>709</v>
       </c>
-      <c r="T161" s="27"/>
+      <c r="T161" s="22"/>
       <c r="U161" s="4"/>
       <c r="V161" s="4"/>
       <c r="W161" s="17"/>
@@ -27295,7 +27274,7 @@
         <v>1801</v>
       </c>
       <c r="AY161" s="17"/>
-      <c r="AZ161" s="31">
+      <c r="AZ161" s="26">
         <v>16790509</v>
       </c>
       <c r="BA161" s="4"/>
@@ -27319,7 +27298,7 @@
       <c r="BQ161" s="17"/>
       <c r="BR161" s="17"/>
     </row>
-    <row r="162" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="162" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="10">
         <v>186</v>
       </c>
@@ -27361,7 +27340,7 @@
       <c r="S162" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T162" s="27"/>
+      <c r="T162" s="22"/>
       <c r="U162" s="4"/>
       <c r="V162" s="4"/>
       <c r="W162" s="17"/>
@@ -27407,7 +27386,7 @@
         <v>1801</v>
       </c>
       <c r="AY162" s="17"/>
-      <c r="AZ162" s="31">
+      <c r="AZ162" s="26">
         <v>16790503</v>
       </c>
       <c r="BA162" s="4"/>
@@ -27431,7 +27410,7 @@
       <c r="BQ162" s="17"/>
       <c r="BR162" s="17"/>
     </row>
-    <row r="163" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="163" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="10">
         <v>187</v>
       </c>
@@ -27475,7 +27454,7 @@
       <c r="S163" s="3" t="s">
         <v>1822</v>
       </c>
-      <c r="T163" s="27"/>
+      <c r="T163" s="22"/>
       <c r="U163" s="4"/>
       <c r="V163" s="4"/>
       <c r="W163" s="17"/>
@@ -27521,7 +27500,7 @@
         <v>1826</v>
       </c>
       <c r="AY163" s="17"/>
-      <c r="AZ163" s="31">
+      <c r="AZ163" s="26">
         <v>16790407</v>
       </c>
       <c r="BA163" s="4"/>
@@ -27545,7 +27524,7 @@
       <c r="BQ163" s="17"/>
       <c r="BR163" s="17"/>
     </row>
-    <row r="164" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="164" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="10">
         <v>188</v>
       </c>
@@ -27587,7 +27566,7 @@
       <c r="S164" s="3" t="s">
         <v>1834</v>
       </c>
-      <c r="T164" s="27"/>
+      <c r="T164" s="22"/>
       <c r="U164" s="4"/>
       <c r="V164" s="4"/>
       <c r="W164" s="17"/>
@@ -27633,7 +27612,7 @@
         <v>1838</v>
       </c>
       <c r="AY164" s="17"/>
-      <c r="AZ164" s="31">
+      <c r="AZ164" s="26">
         <v>167904032</v>
       </c>
       <c r="BA164" s="4"/>
@@ -27661,7 +27640,7 @@
       <c r="BQ164" s="17"/>
       <c r="BR164" s="17"/>
     </row>
-    <row r="165" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="165" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="10">
         <v>189</v>
       </c>
@@ -27703,7 +27682,7 @@
       <c r="S165" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T165" s="27"/>
+      <c r="T165" s="22"/>
       <c r="U165" s="4"/>
       <c r="V165" s="4"/>
       <c r="W165" s="17"/>
@@ -27749,7 +27728,7 @@
         <v>1851</v>
       </c>
       <c r="AY165" s="17"/>
-      <c r="AZ165" s="31">
+      <c r="AZ165" s="26">
         <v>16790311</v>
       </c>
       <c r="BA165" s="4"/>
@@ -27773,7 +27752,7 @@
       <c r="BQ165" s="17"/>
       <c r="BR165" s="17"/>
     </row>
-    <row r="166" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="166" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="10">
         <v>190</v>
       </c>
@@ -27815,7 +27794,7 @@
       <c r="S166" s="3" t="s">
         <v>1860</v>
       </c>
-      <c r="T166" s="27"/>
+      <c r="T166" s="22"/>
       <c r="U166" s="4"/>
       <c r="V166" s="4"/>
       <c r="W166" s="17"/>
@@ -27861,7 +27840,7 @@
         <v>1851</v>
       </c>
       <c r="AY166" s="17"/>
-      <c r="AZ166" s="31">
+      <c r="AZ166" s="26">
         <v>16790302</v>
       </c>
       <c r="BA166" s="4"/>
@@ -27885,7 +27864,7 @@
       <c r="BQ166" s="17"/>
       <c r="BR166" s="17"/>
     </row>
-    <row r="167" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="167" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="10">
         <v>191</v>
       </c>
@@ -27925,7 +27904,7 @@
       <c r="S167" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T167" s="27"/>
+      <c r="T167" s="22"/>
       <c r="U167" s="4"/>
       <c r="V167" s="4"/>
       <c r="W167" s="17"/>
@@ -27971,7 +27950,7 @@
         <v>1875</v>
       </c>
       <c r="AY167" s="17"/>
-      <c r="AZ167" s="31">
+      <c r="AZ167" s="26">
         <v>16790217</v>
       </c>
       <c r="BA167" s="4"/>
@@ -27995,7 +27974,7 @@
       <c r="BQ167" s="17"/>
       <c r="BR167" s="17"/>
     </row>
-    <row r="168" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="168" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="10">
         <v>192</v>
       </c>
@@ -28033,7 +28012,7 @@
       <c r="S168" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T168" s="27"/>
+      <c r="T168" s="22"/>
       <c r="U168" s="4"/>
       <c r="V168" s="3" t="s">
         <v>1883</v>
@@ -28081,7 +28060,7 @@
         <v>1875</v>
       </c>
       <c r="AY168" s="17"/>
-      <c r="AZ168" s="31">
+      <c r="AZ168" s="26">
         <v>16790212</v>
       </c>
       <c r="BA168" s="4"/>
@@ -28105,7 +28084,7 @@
       <c r="BQ168" s="17"/>
       <c r="BR168" s="17"/>
     </row>
-    <row r="169" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="169" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="10">
         <v>193</v>
       </c>
@@ -28145,7 +28124,7 @@
       <c r="S169" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T169" s="27"/>
+      <c r="T169" s="22"/>
       <c r="U169" s="4"/>
       <c r="V169" s="4"/>
       <c r="W169" s="17"/>
@@ -28191,7 +28170,7 @@
         <v>1875</v>
       </c>
       <c r="AY169" s="17"/>
-      <c r="AZ169" s="31">
+      <c r="AZ169" s="26">
         <v>16790207</v>
       </c>
       <c r="BA169" s="4"/>
@@ -28215,7 +28194,7 @@
       <c r="BQ169" s="17"/>
       <c r="BR169" s="17"/>
     </row>
-    <row r="170" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="170" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="10">
         <v>194</v>
       </c>
@@ -28253,7 +28232,7 @@
       <c r="S170" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T170" s="27"/>
+      <c r="T170" s="22"/>
       <c r="U170" s="4"/>
       <c r="V170" s="4"/>
       <c r="W170" s="17"/>
@@ -28299,7 +28278,7 @@
         <v>1875</v>
       </c>
       <c r="AY170" s="17"/>
-      <c r="AZ170" s="31">
+      <c r="AZ170" s="26">
         <v>16790203</v>
       </c>
       <c r="BA170" s="4"/>
@@ -28323,7 +28302,7 @@
       <c r="BQ170" s="17"/>
       <c r="BR170" s="17"/>
     </row>
-    <row r="171" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="171" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="10">
         <v>195</v>
       </c>
@@ -28363,7 +28342,7 @@
       <c r="S171" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T171" s="27"/>
+      <c r="T171" s="22"/>
       <c r="U171" s="4"/>
       <c r="V171" s="4"/>
       <c r="W171" s="17"/>
@@ -28409,7 +28388,7 @@
         <v>1917</v>
       </c>
       <c r="AY171" s="17"/>
-      <c r="AZ171" s="31">
+      <c r="AZ171" s="26">
         <v>16790121</v>
       </c>
       <c r="BA171" s="4"/>
@@ -28433,7 +28412,7 @@
       <c r="BQ171" s="17"/>
       <c r="BR171" s="17"/>
     </row>
-    <row r="172" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="172" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="10">
         <v>196</v>
       </c>
@@ -28473,7 +28452,7 @@
       <c r="S172" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T172" s="27"/>
+      <c r="T172" s="22"/>
       <c r="U172" s="4"/>
       <c r="V172" s="4"/>
       <c r="W172" s="17"/>
@@ -28519,7 +28498,7 @@
         <v>1917</v>
       </c>
       <c r="AY172" s="17"/>
-      <c r="AZ172" s="31">
+      <c r="AZ172" s="26">
         <v>16790112</v>
       </c>
       <c r="BA172" s="4"/>
@@ -28543,7 +28522,7 @@
       <c r="BQ172" s="17"/>
       <c r="BR172" s="17"/>
     </row>
-    <row r="173" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="173" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="10">
         <v>197</v>
       </c>
@@ -28585,7 +28564,7 @@
       <c r="S173" s="3" t="s">
         <v>633</v>
       </c>
-      <c r="T173" s="27"/>
+      <c r="T173" s="22"/>
       <c r="U173" s="4"/>
       <c r="V173" s="4"/>
       <c r="W173" s="17"/>
@@ -28633,7 +28612,7 @@
         <v>1917</v>
       </c>
       <c r="AY173" s="17"/>
-      <c r="AZ173" s="31">
+      <c r="AZ173" s="26">
         <v>16790105</v>
       </c>
       <c r="BA173" s="4"/>
@@ -28657,7 +28636,7 @@
       <c r="BQ173" s="17"/>
       <c r="BR173" s="17"/>
     </row>
-    <row r="174" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="174" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="10">
         <v>198</v>
       </c>
@@ -28697,7 +28676,7 @@
       <c r="S174" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T174" s="27"/>
+      <c r="T174" s="22"/>
       <c r="U174" s="4"/>
       <c r="V174" s="4"/>
       <c r="W174" s="17"/>
@@ -28743,7 +28722,7 @@
         <v>1952</v>
       </c>
       <c r="AY174" s="17"/>
-      <c r="AZ174" s="31">
+      <c r="AZ174" s="26">
         <v>16781212</v>
       </c>
       <c r="BA174" s="4"/>
@@ -28767,7 +28746,7 @@
       <c r="BQ174" s="17"/>
       <c r="BR174" s="17"/>
     </row>
-    <row r="175" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="175" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="10">
         <v>199</v>
       </c>
@@ -28809,7 +28788,7 @@
       <c r="S175" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T175" s="27"/>
+      <c r="T175" s="22"/>
       <c r="U175" s="4"/>
       <c r="V175" s="4"/>
       <c r="W175" s="17"/>
@@ -28857,7 +28836,7 @@
         <v>1952</v>
       </c>
       <c r="AY175" s="17"/>
-      <c r="AZ175" s="31">
+      <c r="AZ175" s="26">
         <v>16781211</v>
       </c>
       <c r="BA175" s="4"/>
@@ -28881,7 +28860,7 @@
       <c r="BQ175" s="17"/>
       <c r="BR175" s="17"/>
     </row>
-    <row r="176" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="176" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="10">
         <v>200</v>
       </c>
@@ -28923,7 +28902,7 @@
       <c r="S176" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T176" s="27"/>
+      <c r="T176" s="22"/>
       <c r="U176" s="4"/>
       <c r="V176" s="4"/>
       <c r="W176" s="17"/>
@@ -28971,7 +28950,7 @@
         <v>1952</v>
       </c>
       <c r="AY176" s="17"/>
-      <c r="AZ176" s="31">
+      <c r="AZ176" s="26">
         <v>16781205</v>
       </c>
       <c r="BA176" s="4"/>
@@ -28997,7 +28976,7 @@
       <c r="BQ176" s="17"/>
       <c r="BR176" s="17"/>
     </row>
-    <row r="177" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="177" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="10">
         <v>201</v>
       </c>
@@ -29037,7 +29016,7 @@
       <c r="S177" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T177" s="27"/>
+      <c r="T177" s="22"/>
       <c r="U177" s="4"/>
       <c r="V177" s="4"/>
       <c r="W177" s="17"/>
@@ -29083,7 +29062,7 @@
         <v>1952</v>
       </c>
       <c r="AY177" s="17"/>
-      <c r="AZ177" s="31">
+      <c r="AZ177" s="26">
         <v>16781201</v>
       </c>
       <c r="BA177" s="4"/>
@@ -29107,7 +29086,7 @@
       <c r="BQ177" s="17"/>
       <c r="BR177" s="17"/>
     </row>
-    <row r="178" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="178" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="10">
         <v>202</v>
       </c>
@@ -29147,7 +29126,7 @@
       <c r="S178" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T178" s="27"/>
+      <c r="T178" s="22"/>
       <c r="U178" s="4"/>
       <c r="V178" s="4"/>
       <c r="W178" s="17"/>
@@ -29193,7 +29172,7 @@
         <v>1997</v>
       </c>
       <c r="AY178" s="17"/>
-      <c r="AZ178" s="31">
+      <c r="AZ178" s="26">
         <v>16781106</v>
       </c>
       <c r="BA178" s="4"/>
@@ -29219,7 +29198,7 @@
       <c r="BQ178" s="17"/>
       <c r="BR178" s="17"/>
     </row>
-    <row r="179" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="179" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="10">
         <v>203</v>
       </c>
@@ -29259,7 +29238,7 @@
       <c r="S179" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T179" s="27"/>
+      <c r="T179" s="22"/>
       <c r="U179" s="4"/>
       <c r="V179" s="4"/>
       <c r="W179" s="17"/>
@@ -29305,7 +29284,7 @@
         <v>1997</v>
       </c>
       <c r="AY179" s="17"/>
-      <c r="AZ179" s="31">
+      <c r="AZ179" s="26">
         <v>16781102</v>
       </c>
       <c r="BA179" s="4"/>
@@ -29329,7 +29308,7 @@
       <c r="BQ179" s="17"/>
       <c r="BR179" s="17"/>
     </row>
-    <row r="180" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="180" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="10">
         <v>204</v>
       </c>
@@ -29371,7 +29350,7 @@
       <c r="S180" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T180" s="27"/>
+      <c r="T180" s="22"/>
       <c r="U180" s="4"/>
       <c r="V180" s="4"/>
       <c r="W180" s="17"/>
@@ -29417,7 +29396,7 @@
         <v>1997</v>
       </c>
       <c r="AY180" s="17"/>
-      <c r="AZ180" s="31">
+      <c r="AZ180" s="26">
         <v>16781101</v>
       </c>
       <c r="BA180" s="3" t="s">
@@ -29443,7 +29422,7 @@
       <c r="BQ180" s="17"/>
       <c r="BR180" s="17"/>
     </row>
-    <row r="181" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="181" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="10">
         <v>205</v>
       </c>
@@ -29481,7 +29460,7 @@
       <c r="S181" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T181" s="27"/>
+      <c r="T181" s="22"/>
       <c r="U181" s="4"/>
       <c r="V181" s="4"/>
       <c r="W181" s="17"/>
@@ -29527,7 +29506,7 @@
         <v>2032</v>
       </c>
       <c r="AY181" s="17"/>
-      <c r="AZ181" s="31">
+      <c r="AZ181" s="26">
         <v>16781007</v>
       </c>
       <c r="BA181" s="4"/>
@@ -29551,7 +29530,7 @@
       <c r="BQ181" s="17"/>
       <c r="BR181" s="17"/>
     </row>
-    <row r="182" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="182" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="10">
         <v>206</v>
       </c>
@@ -29591,7 +29570,7 @@
       <c r="S182" s="3" t="s">
         <v>2040</v>
       </c>
-      <c r="T182" s="27"/>
+      <c r="T182" s="22"/>
       <c r="U182" s="4"/>
       <c r="V182" s="4"/>
       <c r="W182" s="17"/>
@@ -29637,7 +29616,7 @@
         <v>2032</v>
       </c>
       <c r="AY182" s="17"/>
-      <c r="AZ182" s="31">
+      <c r="AZ182" s="26">
         <v>16781006</v>
       </c>
       <c r="BA182" s="4"/>
@@ -29661,7 +29640,7 @@
       <c r="BQ182" s="17"/>
       <c r="BR182" s="17"/>
     </row>
-    <row r="183" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="183" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="10">
         <v>207</v>
       </c>
@@ -29701,7 +29680,7 @@
       <c r="S183" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T183" s="27"/>
+      <c r="T183" s="22"/>
       <c r="U183" s="4"/>
       <c r="V183" s="4"/>
       <c r="W183" s="17"/>
@@ -29749,7 +29728,7 @@
         <v>2032</v>
       </c>
       <c r="AY183" s="17"/>
-      <c r="AZ183" s="31">
+      <c r="AZ183" s="26">
         <v>16781005</v>
       </c>
       <c r="BA183" s="4"/>
@@ -29773,7 +29752,7 @@
       <c r="BQ183" s="17"/>
       <c r="BR183" s="17"/>
     </row>
-    <row r="184" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="184" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="10">
         <v>208</v>
       </c>
@@ -29813,7 +29792,7 @@
       <c r="S184" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T184" s="27"/>
+      <c r="T184" s="22"/>
       <c r="U184" s="4"/>
       <c r="V184" s="4"/>
       <c r="W184" s="17"/>
@@ -29859,7 +29838,7 @@
         <v>2032</v>
       </c>
       <c r="AY184" s="17"/>
-      <c r="AZ184" s="31">
+      <c r="AZ184" s="26">
         <v>16781001</v>
       </c>
       <c r="BA184" s="4"/>
@@ -29883,7 +29862,7 @@
       <c r="BQ184" s="17"/>
       <c r="BR184" s="17"/>
     </row>
-    <row r="185" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="185" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="10">
         <v>209</v>
       </c>
@@ -29925,7 +29904,7 @@
       <c r="S185" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T185" s="27"/>
+      <c r="T185" s="22"/>
       <c r="U185" s="4"/>
       <c r="V185" s="4"/>
       <c r="W185" s="17"/>
@@ -29971,7 +29950,7 @@
         <v>2073</v>
       </c>
       <c r="AY185" s="17"/>
-      <c r="AZ185" s="31">
+      <c r="AZ185" s="26">
         <v>16780910</v>
       </c>
       <c r="BA185" s="4"/>
@@ -29995,7 +29974,7 @@
       <c r="BQ185" s="17"/>
       <c r="BR185" s="17"/>
     </row>
-    <row r="186" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="186" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="10">
         <v>210</v>
       </c>
@@ -30035,7 +30014,7 @@
       <c r="S186" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T186" s="27"/>
+      <c r="T186" s="22"/>
       <c r="U186" s="4"/>
       <c r="V186" s="4"/>
       <c r="W186" s="17"/>
@@ -30081,7 +30060,7 @@
         <v>2073</v>
       </c>
       <c r="AY186" s="17"/>
-      <c r="AZ186" s="31">
+      <c r="AZ186" s="26">
         <v>16780907</v>
       </c>
       <c r="BA186" s="4"/>
@@ -30105,7 +30084,7 @@
       <c r="BQ186" s="17"/>
       <c r="BR186" s="17"/>
     </row>
-    <row r="187" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="187" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="10">
         <v>211</v>
       </c>
@@ -30143,7 +30122,7 @@
       <c r="S187" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T187" s="27"/>
+      <c r="T187" s="22"/>
       <c r="U187" s="4"/>
       <c r="V187" s="4"/>
       <c r="W187" s="17"/>
@@ -30191,7 +30170,7 @@
         <v>2073</v>
       </c>
       <c r="AY187" s="17"/>
-      <c r="AZ187" s="31">
+      <c r="AZ187" s="26">
         <v>16780904</v>
       </c>
       <c r="BA187" s="4"/>
@@ -30217,7 +30196,7 @@
       <c r="BQ187" s="17"/>
       <c r="BR187" s="17"/>
     </row>
-    <row r="188" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="188" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="10">
         <v>212</v>
       </c>
@@ -30259,7 +30238,7 @@
       <c r="S188" s="3" t="s">
         <v>1822</v>
       </c>
-      <c r="T188" s="27"/>
+      <c r="T188" s="22"/>
       <c r="U188" s="3" t="s">
         <v>2102</v>
       </c>
@@ -30307,7 +30286,7 @@
         <v>2073</v>
       </c>
       <c r="AY188" s="17"/>
-      <c r="AZ188" s="31">
+      <c r="AZ188" s="26">
         <v>16780902</v>
       </c>
       <c r="BA188" s="4"/>
@@ -30331,7 +30310,7 @@
       <c r="BQ188" s="17"/>
       <c r="BR188" s="17"/>
     </row>
-    <row r="189" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="189" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="10">
         <v>213</v>
       </c>
@@ -30371,7 +30350,7 @@
       <c r="S189" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T189" s="27"/>
+      <c r="T189" s="22"/>
       <c r="U189" s="4"/>
       <c r="V189" s="4"/>
       <c r="W189" s="17"/>
@@ -30419,7 +30398,7 @@
         <v>2118</v>
       </c>
       <c r="AY189" s="17"/>
-      <c r="AZ189" s="31">
+      <c r="AZ189" s="26">
         <v>16780810</v>
       </c>
       <c r="BA189" s="4"/>
@@ -30443,7 +30422,7 @@
       <c r="BQ189" s="17"/>
       <c r="BR189" s="17"/>
     </row>
-    <row r="190" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="190" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="10">
         <v>214</v>
       </c>
@@ -30483,7 +30462,7 @@
       <c r="S190" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T190" s="27"/>
+      <c r="T190" s="22"/>
       <c r="U190" s="4"/>
       <c r="V190" s="3" t="s">
         <v>2127</v>
@@ -30533,7 +30512,7 @@
         <v>2118</v>
       </c>
       <c r="AY190" s="17"/>
-      <c r="AZ190" s="31">
+      <c r="AZ190" s="26">
         <v>16780807</v>
       </c>
       <c r="BA190" s="4"/>
@@ -30557,7 +30536,7 @@
       <c r="BQ190" s="17"/>
       <c r="BR190" s="17"/>
     </row>
-    <row r="191" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="191" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="10">
         <v>215</v>
       </c>
@@ -30597,7 +30576,7 @@
       <c r="S191" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T191" s="27"/>
+      <c r="T191" s="22"/>
       <c r="U191" s="4"/>
       <c r="V191" s="4"/>
       <c r="W191" s="17"/>
@@ -30643,7 +30622,7 @@
         <v>2118</v>
       </c>
       <c r="AY191" s="17"/>
-      <c r="AZ191" s="31">
+      <c r="AZ191" s="26">
         <v>16780805</v>
       </c>
       <c r="BA191" s="4"/>
@@ -30667,7 +30646,7 @@
       <c r="BQ191" s="17"/>
       <c r="BR191" s="17"/>
     </row>
-    <row r="192" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="192" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="10">
         <v>216</v>
       </c>
@@ -30707,7 +30686,7 @@
       <c r="S192" s="3" t="s">
         <v>2142</v>
       </c>
-      <c r="T192" s="27"/>
+      <c r="T192" s="22"/>
       <c r="U192" s="4"/>
       <c r="V192" s="3" t="s">
         <v>2149</v>
@@ -30755,7 +30734,7 @@
         <v>2118</v>
       </c>
       <c r="AY192" s="17"/>
-      <c r="AZ192" s="31">
+      <c r="AZ192" s="26">
         <v>16780803</v>
       </c>
       <c r="BA192" s="4"/>
@@ -30779,7 +30758,7 @@
       <c r="BQ192" s="17"/>
       <c r="BR192" s="17"/>
     </row>
-    <row r="193" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="193" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="10">
         <v>217</v>
       </c>
@@ -30819,7 +30798,7 @@
       <c r="S193" s="3" t="s">
         <v>2159</v>
       </c>
-      <c r="T193" s="27"/>
+      <c r="T193" s="22"/>
       <c r="U193" s="4"/>
       <c r="V193" s="4"/>
       <c r="W193" s="17"/>
@@ -30865,7 +30844,7 @@
         <v>2118</v>
       </c>
       <c r="AY193" s="17"/>
-      <c r="AZ193" s="31">
+      <c r="AZ193" s="26">
         <v>16780802</v>
       </c>
       <c r="BA193" s="4"/>
@@ -30889,7 +30868,7 @@
       <c r="BQ193" s="17"/>
       <c r="BR193" s="17"/>
     </row>
-    <row r="194" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="194" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="10">
         <v>218</v>
       </c>
@@ -30929,7 +30908,7 @@
       <c r="S194" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T194" s="27"/>
+      <c r="T194" s="22"/>
       <c r="U194" s="4"/>
       <c r="V194" s="4"/>
       <c r="W194" s="17"/>
@@ -30977,7 +30956,7 @@
         <v>2174</v>
       </c>
       <c r="AY194" s="17"/>
-      <c r="AZ194" s="31">
+      <c r="AZ194" s="26">
         <v>16781503</v>
       </c>
       <c r="BA194" s="4"/>
@@ -31001,7 +30980,7 @@
       <c r="BQ194" s="17"/>
       <c r="BR194" s="17"/>
     </row>
-    <row r="195" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="195" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="10">
         <v>219</v>
       </c>
@@ -31043,7 +31022,7 @@
       <c r="S195" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T195" s="27"/>
+      <c r="T195" s="22"/>
       <c r="U195" s="4"/>
       <c r="V195" s="4"/>
       <c r="W195" s="17"/>
@@ -31091,7 +31070,7 @@
         <v>2174</v>
       </c>
       <c r="AY195" s="17"/>
-      <c r="AZ195" s="31">
+      <c r="AZ195" s="26">
         <v>16781501</v>
       </c>
       <c r="BA195" s="4"/>
@@ -31115,7 +31094,7 @@
       <c r="BQ195" s="17"/>
       <c r="BR195" s="17"/>
     </row>
-    <row r="196" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="196" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="10">
         <v>220</v>
       </c>
@@ -31155,7 +31134,7 @@
       <c r="S196" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T196" s="27"/>
+      <c r="T196" s="22"/>
       <c r="U196" s="4"/>
       <c r="V196" s="4"/>
       <c r="W196" s="17"/>
@@ -31201,7 +31180,7 @@
         <v>2174</v>
       </c>
       <c r="AY196" s="17"/>
-      <c r="AZ196" s="31">
+      <c r="AZ196" s="26">
         <v>16780713</v>
       </c>
       <c r="BA196" s="4"/>
@@ -31225,7 +31204,7 @@
       <c r="BQ196" s="17"/>
       <c r="BR196" s="17"/>
     </row>
-    <row r="197" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="197" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="10">
         <v>221</v>
       </c>
@@ -31265,7 +31244,7 @@
       <c r="S197" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T197" s="27"/>
+      <c r="T197" s="22"/>
       <c r="U197" s="4"/>
       <c r="V197" s="4"/>
       <c r="W197" s="17"/>
@@ -31311,7 +31290,7 @@
         <v>2174</v>
       </c>
       <c r="AY197" s="17"/>
-      <c r="AZ197" s="31">
+      <c r="AZ197" s="26">
         <v>16780712</v>
       </c>
       <c r="BA197" s="4"/>
@@ -31335,7 +31314,7 @@
       <c r="BQ197" s="17"/>
       <c r="BR197" s="17"/>
     </row>
-    <row r="198" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="198" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="10">
         <v>222</v>
       </c>
@@ -31375,7 +31354,7 @@
       <c r="S198" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T198" s="27"/>
+      <c r="T198" s="22"/>
       <c r="U198" s="4"/>
       <c r="V198" s="4"/>
       <c r="W198" s="17"/>
@@ -31421,7 +31400,7 @@
         <v>2174</v>
       </c>
       <c r="AY198" s="17"/>
-      <c r="AZ198" s="31">
+      <c r="AZ198" s="26">
         <v>16780707</v>
       </c>
       <c r="BA198" s="4"/>
@@ -31445,7 +31424,7 @@
       <c r="BQ198" s="17"/>
       <c r="BR198" s="17"/>
     </row>
-    <row r="199" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="199" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="10">
         <v>223</v>
       </c>
@@ -31483,7 +31462,7 @@
       <c r="S199" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T199" s="27"/>
+      <c r="T199" s="22"/>
       <c r="U199" s="4"/>
       <c r="V199" s="4"/>
       <c r="W199" s="17"/>
@@ -31529,7 +31508,7 @@
         <v>2174</v>
       </c>
       <c r="AY199" s="17"/>
-      <c r="AZ199" s="31">
+      <c r="AZ199" s="26">
         <v>16780705</v>
       </c>
       <c r="BA199" s="4"/>
@@ -31553,7 +31532,7 @@
       <c r="BQ199" s="17"/>
       <c r="BR199" s="17"/>
     </row>
-    <row r="200" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="200" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="10">
         <v>224</v>
       </c>
@@ -31593,7 +31572,7 @@
       <c r="S200" s="3" t="s">
         <v>2232</v>
       </c>
-      <c r="T200" s="27"/>
+      <c r="T200" s="22"/>
       <c r="U200" s="4"/>
       <c r="V200" s="4"/>
       <c r="W200" s="17"/>
@@ -31639,7 +31618,7 @@
         <v>2174</v>
       </c>
       <c r="AY200" s="17"/>
-      <c r="AZ200" s="31">
+      <c r="AZ200" s="26">
         <v>16780701</v>
       </c>
       <c r="BA200" s="4"/>
@@ -31663,7 +31642,7 @@
       <c r="BQ200" s="17"/>
       <c r="BR200" s="17"/>
     </row>
-    <row r="201" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="201" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="10">
         <v>225</v>
       </c>
@@ -31705,7 +31684,7 @@
       <c r="S201" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T201" s="27"/>
+      <c r="T201" s="22"/>
       <c r="U201" s="4"/>
       <c r="V201" s="4"/>
       <c r="W201" s="17"/>
@@ -31753,7 +31732,7 @@
         <v>2245</v>
       </c>
       <c r="AY201" s="17"/>
-      <c r="AZ201" s="31">
+      <c r="AZ201" s="26">
         <v>16780611</v>
       </c>
       <c r="BA201" s="4"/>
@@ -31777,7 +31756,7 @@
       <c r="BQ201" s="17"/>
       <c r="BR201" s="17"/>
     </row>
-    <row r="202" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="202" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="10">
         <v>226</v>
       </c>
@@ -31817,7 +31796,7 @@
       <c r="S202" s="3" t="s">
         <v>1822</v>
       </c>
-      <c r="T202" s="27"/>
+      <c r="T202" s="22"/>
       <c r="U202" s="4"/>
       <c r="V202" s="4"/>
       <c r="W202" s="17"/>
@@ -31863,7 +31842,7 @@
         <v>2245</v>
       </c>
       <c r="AY202" s="17"/>
-      <c r="AZ202" s="31">
+      <c r="AZ202" s="26">
         <v>16780606</v>
       </c>
       <c r="BA202" s="4"/>
@@ -31887,7 +31866,7 @@
       <c r="BQ202" s="17"/>
       <c r="BR202" s="17"/>
     </row>
-    <row r="203" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="203" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="10">
         <v>227</v>
       </c>
@@ -31927,7 +31906,7 @@
       <c r="S203" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T203" s="27"/>
+      <c r="T203" s="22"/>
       <c r="U203" s="4"/>
       <c r="V203" s="3" t="s">
         <v>2263</v>
@@ -31975,7 +31954,7 @@
         <v>2245</v>
       </c>
       <c r="AY203" s="17"/>
-      <c r="AZ203" s="31">
+      <c r="AZ203" s="26">
         <v>16780604</v>
       </c>
       <c r="BA203" s="4"/>
@@ -31999,7 +31978,7 @@
       <c r="BQ203" s="17"/>
       <c r="BR203" s="17"/>
     </row>
-    <row r="204" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="204" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="10">
         <v>228</v>
       </c>
@@ -32037,7 +32016,7 @@
       <c r="S204" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T204" s="27"/>
+      <c r="T204" s="22"/>
       <c r="U204" s="4"/>
       <c r="V204" s="4"/>
       <c r="W204" s="17"/>
@@ -32083,7 +32062,7 @@
         <v>2245</v>
       </c>
       <c r="AY204" s="17"/>
-      <c r="AZ204" s="31">
+      <c r="AZ204" s="26">
         <v>16780601</v>
       </c>
       <c r="BA204" s="4"/>
@@ -32107,7 +32086,7 @@
       <c r="BQ204" s="17"/>
       <c r="BR204" s="17"/>
     </row>
-    <row r="205" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="205" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="10">
         <v>229</v>
       </c>
@@ -32145,7 +32124,7 @@
       <c r="S205" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T205" s="27"/>
+      <c r="T205" s="22"/>
       <c r="U205" s="4"/>
       <c r="V205" s="4"/>
       <c r="W205" s="17"/>
@@ -32191,7 +32170,7 @@
         <v>2286</v>
       </c>
       <c r="AY205" s="17"/>
-      <c r="AZ205" s="31">
+      <c r="AZ205" s="26">
         <v>16780511</v>
       </c>
       <c r="BA205" s="4"/>
@@ -32215,7 +32194,7 @@
       <c r="BQ205" s="17"/>
       <c r="BR205" s="17"/>
     </row>
-    <row r="206" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="206" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="10">
         <v>230</v>
       </c>
@@ -32253,7 +32232,7 @@
       <c r="S206" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T206" s="27"/>
+      <c r="T206" s="22"/>
       <c r="U206" s="4"/>
       <c r="V206" s="4"/>
       <c r="W206" s="17"/>
@@ -32299,7 +32278,7 @@
         <v>2286</v>
       </c>
       <c r="AY206" s="17"/>
-      <c r="AZ206" s="31">
+      <c r="AZ206" s="26">
         <v>16780508</v>
       </c>
       <c r="BA206" s="4"/>
@@ -32323,7 +32302,7 @@
       <c r="BQ206" s="17"/>
       <c r="BR206" s="17"/>
     </row>
-    <row r="207" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="207" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="10">
         <v>231</v>
       </c>
@@ -32363,7 +32342,7 @@
       <c r="S207" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T207" s="27"/>
+      <c r="T207" s="22"/>
       <c r="U207" s="3" t="s">
         <v>2303</v>
       </c>
@@ -32411,7 +32390,7 @@
         <v>2286</v>
       </c>
       <c r="AY207" s="17"/>
-      <c r="AZ207" s="31">
+      <c r="AZ207" s="26">
         <v>16780503</v>
       </c>
       <c r="BA207" s="4"/>
@@ -32435,7 +32414,7 @@
       <c r="BQ207" s="17"/>
       <c r="BR207" s="17"/>
     </row>
-    <row r="208" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="208" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="10">
         <v>232</v>
       </c>
@@ -32477,7 +32456,7 @@
       <c r="S208" s="3" t="s">
         <v>2315</v>
       </c>
-      <c r="T208" s="27"/>
+      <c r="T208" s="22"/>
       <c r="U208" s="4"/>
       <c r="V208" s="4"/>
       <c r="W208" s="17"/>
@@ -32523,7 +32502,7 @@
         <v>2286</v>
       </c>
       <c r="AY208" s="17"/>
-      <c r="AZ208" s="31">
+      <c r="AZ208" s="26">
         <v>16780501</v>
       </c>
       <c r="BA208" s="4"/>
@@ -32547,7 +32526,7 @@
       <c r="BQ208" s="17"/>
       <c r="BR208" s="17"/>
     </row>
-    <row r="209" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="209" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="10">
         <v>233</v>
       </c>
@@ -32591,7 +32570,7 @@
       <c r="S209" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T209" s="27"/>
+      <c r="T209" s="22"/>
       <c r="U209" s="4"/>
       <c r="V209" s="4"/>
       <c r="W209" s="17"/>
@@ -32661,7 +32640,7 @@
       <c r="BQ209" s="17"/>
       <c r="BR209" s="17"/>
     </row>
-    <row r="210" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="210" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="10">
         <v>234</v>
       </c>
@@ -32707,7 +32686,7 @@
       <c r="S210" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T210" s="27"/>
+      <c r="T210" s="22"/>
       <c r="U210" s="3" t="s">
         <v>2341</v>
       </c>
@@ -32779,7 +32758,7 @@
       <c r="BQ210" s="17"/>
       <c r="BR210" s="17"/>
     </row>
-    <row r="211" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="211" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="10">
         <v>235</v>
       </c>
@@ -32819,7 +32798,7 @@
       <c r="S211" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T211" s="27"/>
+      <c r="T211" s="22"/>
       <c r="U211" s="4"/>
       <c r="V211" s="4"/>
       <c r="W211" s="17"/>
@@ -32865,7 +32844,7 @@
         <v>2355</v>
       </c>
       <c r="AY211" s="17"/>
-      <c r="AZ211" s="31">
+      <c r="AZ211" s="26">
         <v>16780402</v>
       </c>
       <c r="BA211" s="4"/>
@@ -32889,7 +32868,7 @@
       <c r="BQ211" s="17"/>
       <c r="BR211" s="17"/>
     </row>
-    <row r="212" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="212" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="10">
         <v>236</v>
       </c>
@@ -32929,7 +32908,7 @@
       <c r="S212" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T212" s="27"/>
+      <c r="T212" s="22"/>
       <c r="U212" s="4"/>
       <c r="V212" s="4"/>
       <c r="W212" s="17"/>
@@ -32977,7 +32956,7 @@
         <v>2355</v>
       </c>
       <c r="AY212" s="17"/>
-      <c r="AZ212" s="31">
+      <c r="AZ212" s="26">
         <v>16780401</v>
       </c>
       <c r="BA212" s="4"/>
@@ -33001,7 +32980,7 @@
       <c r="BQ212" s="17"/>
       <c r="BR212" s="17"/>
     </row>
-    <row r="213" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="213" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="10">
         <v>237</v>
       </c>
@@ -33039,7 +33018,7 @@
       <c r="S213" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T213" s="27"/>
+      <c r="T213" s="22"/>
       <c r="U213" s="4"/>
       <c r="V213" s="4"/>
       <c r="W213" s="17"/>
@@ -33085,7 +33064,7 @@
         <v>2377</v>
       </c>
       <c r="AY213" s="17"/>
-      <c r="AZ213" s="31">
+      <c r="AZ213" s="26">
         <v>16780313</v>
       </c>
       <c r="BA213" s="4"/>
@@ -33109,7 +33088,7 @@
       <c r="BQ213" s="17"/>
       <c r="BR213" s="17"/>
     </row>
-    <row r="214" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="214" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="10">
         <v>238</v>
       </c>
@@ -33151,7 +33130,7 @@
       <c r="S214" s="3" t="s">
         <v>2386</v>
       </c>
-      <c r="T214" s="27"/>
+      <c r="T214" s="22"/>
       <c r="U214" s="4"/>
       <c r="V214" s="4"/>
       <c r="W214" s="17"/>
@@ -33197,7 +33176,7 @@
         <v>2377</v>
       </c>
       <c r="AY214" s="17"/>
-      <c r="AZ214" s="31">
+      <c r="AZ214" s="26">
         <v>16780310</v>
       </c>
       <c r="BA214" s="4"/>
@@ -33223,7 +33202,7 @@
       <c r="BQ214" s="17"/>
       <c r="BR214" s="17"/>
     </row>
-    <row r="215" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="215" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="10">
         <v>239</v>
       </c>
@@ -33265,7 +33244,7 @@
       <c r="S215" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T215" s="27"/>
+      <c r="T215" s="22"/>
       <c r="U215" s="3" t="s">
         <v>2398</v>
       </c>
@@ -33315,7 +33294,7 @@
         <v>2377</v>
       </c>
       <c r="AY215" s="17"/>
-      <c r="AZ215" s="31">
+      <c r="AZ215" s="26">
         <v>16780307</v>
       </c>
       <c r="BA215" s="4"/>
@@ -33339,7 +33318,7 @@
       <c r="BQ215" s="17"/>
       <c r="BR215" s="17"/>
     </row>
-    <row r="216" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="216" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="10">
         <v>240</v>
       </c>
@@ -33379,7 +33358,7 @@
       <c r="S216" s="3" t="s">
         <v>2409</v>
       </c>
-      <c r="T216" s="27"/>
+      <c r="T216" s="22"/>
       <c r="U216" s="4"/>
       <c r="V216" s="4"/>
       <c r="W216" s="17"/>
@@ -33425,7 +33404,7 @@
         <v>2377</v>
       </c>
       <c r="AY216" s="17"/>
-      <c r="AZ216" s="31">
+      <c r="AZ216" s="26">
         <v>16780302</v>
       </c>
       <c r="BA216" s="4"/>
@@ -33449,7 +33428,7 @@
       <c r="BQ216" s="17"/>
       <c r="BR216" s="17"/>
     </row>
-    <row r="217" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="217" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="10">
         <v>241</v>
       </c>
@@ -33489,7 +33468,7 @@
       <c r="S217" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T217" s="27"/>
+      <c r="T217" s="22"/>
       <c r="U217" s="4"/>
       <c r="V217" s="4"/>
       <c r="W217" s="17"/>
@@ -33535,7 +33514,7 @@
         <v>2423</v>
       </c>
       <c r="AY217" s="17"/>
-      <c r="AZ217" s="31">
+      <c r="AZ217" s="26">
         <v>167802102</v>
       </c>
       <c r="BA217" s="4"/>
@@ -33559,7 +33538,7 @@
       <c r="BQ217" s="17"/>
       <c r="BR217" s="17"/>
     </row>
-    <row r="218" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="218" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="10">
         <v>242</v>
       </c>
@@ -33597,7 +33576,7 @@
       <c r="S218" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T218" s="27"/>
+      <c r="T218" s="22"/>
       <c r="U218" s="4"/>
       <c r="V218" s="3" t="s">
         <v>2431</v>
@@ -33645,7 +33624,7 @@
         <v>2423</v>
       </c>
       <c r="AY218" s="17"/>
-      <c r="AZ218" s="31">
+      <c r="AZ218" s="26">
         <v>16780209</v>
       </c>
       <c r="BA218" s="4"/>
@@ -33669,7 +33648,7 @@
       <c r="BQ218" s="17"/>
       <c r="BR218" s="17"/>
     </row>
-    <row r="219" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="219" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="10">
         <v>243</v>
       </c>
@@ -33707,7 +33686,7 @@
       <c r="S219" s="3" t="s">
         <v>2409</v>
       </c>
-      <c r="T219" s="27"/>
+      <c r="T219" s="22"/>
       <c r="U219" s="4"/>
       <c r="V219" s="4"/>
       <c r="W219" s="17"/>
@@ -33753,7 +33732,7 @@
         <v>2423</v>
       </c>
       <c r="AY219" s="17"/>
-      <c r="AZ219" s="31">
+      <c r="AZ219" s="26">
         <v>16780205</v>
       </c>
       <c r="BA219" s="4"/>
@@ -33777,7 +33756,7 @@
       <c r="BQ219" s="17"/>
       <c r="BR219" s="17"/>
     </row>
-    <row r="220" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="220" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="10">
         <v>244</v>
       </c>
@@ -33815,7 +33794,7 @@
       <c r="S220" s="3" t="s">
         <v>2451</v>
       </c>
-      <c r="T220" s="27"/>
+      <c r="T220" s="22"/>
       <c r="U220" s="4"/>
       <c r="V220" s="4"/>
       <c r="W220" s="17"/>
@@ -33861,7 +33840,7 @@
         <v>2423</v>
       </c>
       <c r="AY220" s="17"/>
-      <c r="AZ220" s="31">
+      <c r="AZ220" s="26">
         <v>16780202</v>
       </c>
       <c r="BA220" s="4"/>
@@ -33885,7 +33864,7 @@
       <c r="BQ220" s="17"/>
       <c r="BR220" s="17"/>
     </row>
-    <row r="221" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="221" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="10">
         <v>245</v>
       </c>
@@ -33929,7 +33908,7 @@
       <c r="S221" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T221" s="27"/>
+      <c r="T221" s="22"/>
       <c r="U221" s="4"/>
       <c r="V221" s="4"/>
       <c r="W221" s="17"/>
@@ -33977,7 +33956,7 @@
         <v>2466</v>
       </c>
       <c r="AY221" s="17"/>
-      <c r="AZ221" s="31">
+      <c r="AZ221" s="26">
         <v>16781305</v>
       </c>
       <c r="BA221" s="4"/>
@@ -33999,7 +33978,7 @@
       <c r="BQ221" s="17"/>
       <c r="BR221" s="17"/>
     </row>
-    <row r="222" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="222" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="10">
         <v>246</v>
       </c>
@@ -34039,7 +34018,7 @@
       <c r="S222" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T222" s="27"/>
+      <c r="T222" s="22"/>
       <c r="U222" s="4"/>
       <c r="V222" s="4"/>
       <c r="W222" s="17"/>
@@ -34087,7 +34066,7 @@
         <v>2466</v>
       </c>
       <c r="AY222" s="17"/>
-      <c r="AZ222" s="31">
+      <c r="AZ222" s="26">
         <v>16781303</v>
       </c>
       <c r="BA222" s="4"/>
@@ -34111,7 +34090,7 @@
       <c r="BQ222" s="17"/>
       <c r="BR222" s="17"/>
     </row>
-    <row r="223" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="223" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="10">
         <v>247</v>
       </c>
@@ -34151,7 +34130,7 @@
       <c r="S223" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T223" s="27"/>
+      <c r="T223" s="22"/>
       <c r="U223" s="4"/>
       <c r="V223" s="4"/>
       <c r="W223" s="17"/>
@@ -34199,7 +34178,7 @@
         <v>2466</v>
       </c>
       <c r="AY223" s="17"/>
-      <c r="AZ223" s="31">
+      <c r="AZ223" s="26">
         <v>16781301</v>
       </c>
       <c r="BA223" s="4"/>
@@ -34223,7 +34202,7 @@
       <c r="BQ223" s="17"/>
       <c r="BR223" s="17"/>
     </row>
-    <row r="224" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="224" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="10">
         <v>248</v>
       </c>
@@ -34263,7 +34242,7 @@
       <c r="S224" s="3" t="s">
         <v>2493</v>
       </c>
-      <c r="T224" s="27"/>
+      <c r="T224" s="22"/>
       <c r="U224" s="4"/>
       <c r="V224" s="3" t="s">
         <v>2494</v>
@@ -34313,7 +34292,7 @@
         <v>2466</v>
       </c>
       <c r="AY224" s="17"/>
-      <c r="AZ224" s="31">
+      <c r="AZ224" s="26">
         <v>16780107</v>
       </c>
       <c r="BA224" s="4"/>
@@ -34339,7 +34318,7 @@
       <c r="BQ224" s="17"/>
       <c r="BR224" s="17"/>
     </row>
-    <row r="225" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="225" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="10">
         <v>249</v>
       </c>
@@ -34377,7 +34356,7 @@
       <c r="S225" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T225" s="27"/>
+      <c r="T225" s="22"/>
       <c r="U225" s="4"/>
       <c r="V225" s="3" t="s">
         <v>2506</v>
@@ -34425,7 +34404,7 @@
         <v>2510</v>
       </c>
       <c r="AY225" s="17"/>
-      <c r="AZ225" s="31">
+      <c r="AZ225" s="26">
         <v>16840703</v>
       </c>
       <c r="BA225" s="3" t="s">
@@ -34451,7 +34430,7 @@
       <c r="BQ225" s="17"/>
       <c r="BR225" s="17"/>
     </row>
-    <row r="226" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="226" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="10">
         <v>250</v>
       </c>
@@ -34489,7 +34468,7 @@
       <c r="S226" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T226" s="27"/>
+      <c r="T226" s="22"/>
       <c r="U226" s="3" t="s">
         <v>2341</v>
       </c>
@@ -34537,7 +34516,7 @@
         <v>2466</v>
       </c>
       <c r="AY226" s="17"/>
-      <c r="AZ226" s="31">
+      <c r="AZ226" s="26">
         <v>16780105</v>
       </c>
       <c r="BA226" s="4"/>
@@ -34563,7 +34542,7 @@
         <v>2522</v>
       </c>
     </row>
-    <row r="227" spans="1:70" ht="20.100000000000001" customHeight="1">
+    <row r="227" spans="1:70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="10">
         <v>252</v>
       </c>
@@ -34605,7 +34584,7 @@
       <c r="S227" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T227" s="27"/>
+      <c r="T227" s="22"/>
       <c r="U227" s="4"/>
       <c r="V227" s="4"/>
       <c r="W227" s="17"/>
@@ -34651,7 +34630,7 @@
         <v>1576</v>
       </c>
       <c r="AY227" s="17"/>
-      <c r="AZ227" s="31">
+      <c r="AZ227" s="26">
         <v>168004052</v>
       </c>
       <c r="BA227" s="4"/>

--- a/sources/mercure_galant_indexation_musicale/load 1678-1686.xlsx
+++ b/sources/mercure_galant_indexation_musicale/load 1678-1686.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rebecca\Documents\GitHub\SHERLOCK\sources\mercure_galant_indexation_musicale\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D1266B-DA31-41CE-851C-9CBB8B838274}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08868A7D-739D-413B-A3A4-A28D79460CE8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9241,8 +9241,8 @@
   </sheetPr>
   <dimension ref="A1:BR227"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="AF1" zoomScale="80" zoomScaleNormal="50" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="AQ31" sqref="AQ31"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="H1" zoomScale="80" zoomScaleNormal="50" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="19.95" customHeight="1"/>
